--- a/pythons/new_neurons/logs/64bits_20220809_gpu_a100/64bits_20220809_gpu_a100.xlsx
+++ b/pythons/new_neurons/logs/64bits_20220809_gpu_a100/64bits_20220809_gpu_a100.xlsx
@@ -8,17 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chaut\OneDrive - Heriot-Watt University\HIOF_Master\Master_Thesis\NewLSTM\Codes\tf_implementations\pythons\new_neurons\logs\64bits_20220809_gpu_a100\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8143F801-D2DF-4A87-8443-DF8F89957C66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD0DFC42-F1A6-448E-87B2-67309ACAFFDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="64bits_20220809_gpu_a100" sheetId="2" r:id="rId1"/>
     <sheet name="raw" sheetId="3" r:id="rId2"/>
+    <sheet name="raw_loss" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="6" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
+    <pivotCache cacheId="13" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2129" uniqueCount="563">
   <si>
     <t>best21</t>
   </si>
@@ -954,14 +956,789 @@
   </si>
   <si>
     <t>lstm+</t>
+  </si>
+  <si>
+    <t>log_best21_v00.txt:val0.csv val_performance = 0.008516381478243903</t>
+  </si>
+  <si>
+    <t>log_best21_v00.txt:val1.csv val_performance = 0.009802480890573067</t>
+  </si>
+  <si>
+    <t>log_best21_v00.txt:val2.csv val_performance = 0.007124539515225701</t>
+  </si>
+  <si>
+    <t>log_best21_v00.txt:val3.csv val_performance = 0.00806085088481934</t>
+  </si>
+  <si>
+    <t>log_best21_v00.txt:val4.csv val_performance = 0.008762598547286253</t>
+  </si>
+  <si>
+    <t>log_best21_v00.txt:val5.csv val_performance = 0.008541030876392524</t>
+  </si>
+  <si>
+    <t>log_best21_v00.txt:val6.csv val_performance = 0.006991557876954997</t>
+  </si>
+  <si>
+    <t>log_best21_v00.txt:val7.csv val_performance = 0.008752171240991521</t>
+  </si>
+  <si>
+    <t>log_best21_v01.txt:val0.csv val_performance = 0.00787732982162996</t>
+  </si>
+  <si>
+    <t>log_best21_v01.txt:val1.csv val_performance = 0.008893585250126037</t>
+  </si>
+  <si>
+    <t>log_best21_v01.txt:val2.csv val_performance = 0.00809245601152994</t>
+  </si>
+  <si>
+    <t>log_best21_v01.txt:val3.csv val_performance = 0.009284153855387004</t>
+  </si>
+  <si>
+    <t>log_best21_v01.txt:val4.csv val_performance = 0.007843555510776434</t>
+  </si>
+  <si>
+    <t>log_best21_v01.txt:val5.csv val_performance = 0.008415856162014944</t>
+  </si>
+  <si>
+    <t>log_best21_v01.txt:val6.csv val_performance = 0.007535382942834576</t>
+  </si>
+  <si>
+    <t>log_best21_v01.txt:val7.csv val_performance = 0.008833167051479848</t>
+  </si>
+  <si>
+    <t>log_best21_v02.txt:val0.csv val_performance = 0.008744732986891757</t>
+  </si>
+  <si>
+    <t>log_best21_v02.txt:val1.csv val_performance = 0.007212116179363582</t>
+  </si>
+  <si>
+    <t>log_best21_v02.txt:val2.csv val_performance = 0.007382937083540564</t>
+  </si>
+  <si>
+    <t>log_best21_v02.txt:val3.csv val_performance = 0.009200641420603894</t>
+  </si>
+  <si>
+    <t>log_best21_v02.txt:val4.csv val_performance = 0.008163904549667696</t>
+  </si>
+  <si>
+    <t>log_best21_v02.txt:val5.csv val_performance = 0.00745063973380698</t>
+  </si>
+  <si>
+    <t>log_best21_v02.txt:val6.csv val_performance = 0.008197358874517283</t>
+  </si>
+  <si>
+    <t>log_best21_v02.txt:val7.csv val_performance = 0.007258368055257177</t>
+  </si>
+  <si>
+    <t>log_best21_v03.txt:val0.csv val_performance = 0.008429141481434086</t>
+  </si>
+  <si>
+    <t>log_best21_v03.txt:val1.csv val_performance = 0.00841831476786727</t>
+  </si>
+  <si>
+    <t>log_best21_v03.txt:val2.csv val_performance = 0.009379157546646418</t>
+  </si>
+  <si>
+    <t>log_best21_v03.txt:val3.csv val_performance = 0.009001987004180607</t>
+  </si>
+  <si>
+    <t>log_best21_v03.txt:val4.csv val_performance = 0.008896095624787208</t>
+  </si>
+  <si>
+    <t>log_best21_v03.txt:val5.csv val_performance = 0.008300654900230308</t>
+  </si>
+  <si>
+    <t>log_best21_v03.txt:val6.csv val_performance = 0.008464247261894249</t>
+  </si>
+  <si>
+    <t>log_best21_v03.txt:val7.csv val_performance = 0.007901195845664396</t>
+  </si>
+  <si>
+    <t>log_best21_v04.txt:val0.csv val_performance = 0.007223375091198274</t>
+  </si>
+  <si>
+    <t>log_best21_v04.txt:val1.csv val_performance = 0.008648090096405036</t>
+  </si>
+  <si>
+    <t>log_best21_v04.txt:val2.csv val_performance = 0.009677770416375922</t>
+  </si>
+  <si>
+    <t>log_best21_v04.txt:val3.csv val_performance = 0.009395636487056795</t>
+  </si>
+  <si>
+    <t>log_best21_v04.txt:val4.csv val_performance = 0.008272856576346153</t>
+  </si>
+  <si>
+    <t>log_best21_v04.txt:val5.csv val_performance = 0.008549678338265337</t>
+  </si>
+  <si>
+    <t>log_best21_v04.txt:val6.csv val_performance = 0.007947794958346268</t>
+  </si>
+  <si>
+    <t>log_best21_v04.txt:val7.csv val_performance = 0.008801859376003807</t>
+  </si>
+  <si>
+    <t>log_best21_v05.txt:val0.csv val_performance = 0.01092559202139565</t>
+  </si>
+  <si>
+    <t>log_best21_v05.txt:val1.csv val_performance = 0.009857032038442152</t>
+  </si>
+  <si>
+    <t>log_best21_v05.txt:val2.csv val_performance = 0.009357615926657598</t>
+  </si>
+  <si>
+    <t>log_best21_v05.txt:val3.csv val_performance = 0.009460455355019185</t>
+  </si>
+  <si>
+    <t>log_best21_v05.txt:val4.csv val_performance = 0.00987207921838417</t>
+  </si>
+  <si>
+    <t>log_best21_v05.txt:val5.csv val_performance = 0.009043888908860067</t>
+  </si>
+  <si>
+    <t>log_best21_v05.txt:val6.csv val_performance = 0.009932543874330426</t>
+  </si>
+  <si>
+    <t>log_best21_v05.txt:val7.csv val_performance = 0.008932693999512735</t>
+  </si>
+  <si>
+    <t>log_best21_v06.txt:val0.csv val_performance = 0.008664585980584307</t>
+  </si>
+  <si>
+    <t>log_best21_v06.txt:val1.csv val_performance = 0.008878556139660732</t>
+  </si>
+  <si>
+    <t>log_best21_v06.txt:val2.csv val_performance = 0.008853528324443633</t>
+  </si>
+  <si>
+    <t>log_best21_v06.txt:val3.csv val_performance = 0.010312957774488301</t>
+  </si>
+  <si>
+    <t>log_best21_v06.txt:val4.csv val_performance = 0.009822626562825973</t>
+  </si>
+  <si>
+    <t>log_best21_v06.txt:val5.csv val_performance = 0.0090663904780587</t>
+  </si>
+  <si>
+    <t>log_best21_v06.txt:val6.csv val_performance = 0.00817946247341109</t>
+  </si>
+  <si>
+    <t>log_best21_v06.txt:val7.csv val_performance = 0.009529751941160845</t>
+  </si>
+  <si>
+    <t>log_best21_v07.txt:val0.csv val_performance = 0.008757849194796294</t>
+  </si>
+  <si>
+    <t>log_best21_v07.txt:val1.csv val_performance = 0.009615631151512843</t>
+  </si>
+  <si>
+    <t>log_best21_v07.txt:val2.csv val_performance = 0.007815645657931155</t>
+  </si>
+  <si>
+    <t>log_best21_v07.txt:val3.csv val_performance = 0.00913041230272998</t>
+  </si>
+  <si>
+    <t>log_best21_v07.txt:val4.csv val_performance = 0.008778162161689048</t>
+  </si>
+  <si>
+    <t>log_best21_v07.txt:val5.csv val_performance = 0.009907418242290746</t>
+  </si>
+  <si>
+    <t>log_best21_v07.txt:val6.csv val_performance = 0.008835166051819466</t>
+  </si>
+  <si>
+    <t>log_best21_v07.txt:val7.csv val_performance = 0.010052889093743172</t>
+  </si>
+  <si>
+    <t>log_best21_v08.txt:val0.csv val_performance = 0.010248483732277928</t>
+  </si>
+  <si>
+    <t>log_best21_v08.txt:val1.csv val_performance = 0.011419930948165333</t>
+  </si>
+  <si>
+    <t>log_best21_v08.txt:val2.csv val_performance = 0.00901601745419264</t>
+  </si>
+  <si>
+    <t>log_best21_v08.txt:val3.csv val_performance = 0.010749736904000176</t>
+  </si>
+  <si>
+    <t>log_best21_v08.txt:val4.csv val_performance = 0.008855781846271853</t>
+  </si>
+  <si>
+    <t>log_best21_v08.txt:val5.csv val_performance = 0.010375700282738305</t>
+  </si>
+  <si>
+    <t>log_best21_v08.txt:val6.csv val_performance = 0.00983664740696605</t>
+  </si>
+  <si>
+    <t>log_best21_v08.txt:val7.csv val_performance = 0.008978111761594973</t>
+  </si>
+  <si>
+    <t>log_best21_v09.txt:val0.csv val_performance = 0.010219242951314053</t>
+  </si>
+  <si>
+    <t>log_best21_v09.txt:val1.csv val_performance = 0.009126041907016599</t>
+  </si>
+  <si>
+    <t>log_best21_v09.txt:val2.csv val_performance = 0.0077569271147087514</t>
+  </si>
+  <si>
+    <t>log_best21_v09.txt:val3.csv val_performance = 0.009503232266256635</t>
+  </si>
+  <si>
+    <t>log_best21_v09.txt:val4.csv val_performance = 0.007950061247468257</t>
+  </si>
+  <si>
+    <t>log_best21_v09.txt:val5.csv val_performance = 0.009829433065242928</t>
+  </si>
+  <si>
+    <t>log_best21_v09.txt:val6.csv val_performance = 0.008053729944169948</t>
+  </si>
+  <si>
+    <t>log_best21_v09.txt:val7.csv val_performance = 0.007928701910621578</t>
+  </si>
+  <si>
+    <t>log_best21_v10.txt:val0.csv val_performance = 0.010371484864024155</t>
+  </si>
+  <si>
+    <t>log_best21_v10.txt:val1.csv val_performance = 0.008131815315361677</t>
+  </si>
+  <si>
+    <t>log_best21_v10.txt:val2.csv val_performance = 0.008252629314438762</t>
+  </si>
+  <si>
+    <t>log_best21_v10.txt:val3.csv val_performance = 0.012088998526362863</t>
+  </si>
+  <si>
+    <t>log_best21_v10.txt:val4.csv val_performance = 0.010011316363165448</t>
+  </si>
+  <si>
+    <t>log_best21_v10.txt:val5.csv val_performance = 0.007582740836799317</t>
+  </si>
+  <si>
+    <t>log_best21_v10.txt:val6.csv val_performance = 0.008468602663721372</t>
+  </si>
+  <si>
+    <t>log_best21_v10.txt:val7.csv val_performance = 0.010097086714111516</t>
+  </si>
+  <si>
+    <t>log_best21_v11.txt:val0.csv val_performance = 0.00899260085232961</t>
+  </si>
+  <si>
+    <t>log_best21_v11.txt:val1.csv val_performance = 0.008616769509677871</t>
+  </si>
+  <si>
+    <t>log_best21_v11.txt:val2.csv val_performance = 0.00922245927153405</t>
+  </si>
+  <si>
+    <t>log_best21_v11.txt:val3.csv val_performance = 0.010044971802762133</t>
+  </si>
+  <si>
+    <t>log_best21_v11.txt:val4.csv val_performance = 0.00842248896681481</t>
+  </si>
+  <si>
+    <t>log_best21_v11.txt:val5.csv val_performance = 0.011256978712619745</t>
+  </si>
+  <si>
+    <t>log_best21_v11.txt:val6.csv val_performance = 0.01113916741590002</t>
+  </si>
+  <si>
+    <t>log_best21_v11.txt:val7.csv val_performance = 0.008892884381729037</t>
+  </si>
+  <si>
+    <t>log_best21_v12.txt:val0.csv val_performance = 0.030336793040336</t>
+  </si>
+  <si>
+    <t>log_best21_v12.txt:val1.csv val_performance = 0.03050260392737689</t>
+  </si>
+  <si>
+    <t>log_best21_v12.txt:val2.csv val_performance = 0.02720304332892028</t>
+  </si>
+  <si>
+    <t>log_best21_v12.txt:val3.csv val_performance = 0.040624882658135145</t>
+  </si>
+  <si>
+    <t>log_best21_v12.txt:val4.csv val_performance = 0.03295413283788445</t>
+  </si>
+  <si>
+    <t>log_best21_v12.txt:val5.csv val_performance = 0.019879531236492175</t>
+  </si>
+  <si>
+    <t>log_best21_v12.txt:val6.csv val_performance = 0.12139162251479452</t>
+  </si>
+  <si>
+    <t>log_best21_v12.txt:val7.csv val_performance = 0.03325307057645119</t>
+  </si>
+  <si>
+    <t>log_best21_v13.txt:val0.csv val_performance = 0.009964688698992112</t>
+  </si>
+  <si>
+    <t>log_best21_v13.txt:val1.csv val_performance = 0.00899002487075186</t>
+  </si>
+  <si>
+    <t>log_best21_v13.txt:val2.csv val_performance = 0.009061903803898543</t>
+  </si>
+  <si>
+    <t>log_best21_v13.txt:val3.csv val_performance = 0.009482807294852263</t>
+  </si>
+  <si>
+    <t>log_best21_v13.txt:val4.csv val_performance = 0.07023101781116695</t>
+  </si>
+  <si>
+    <t>log_best21_v13.txt:val5.csv val_performance = 0.009883142693347802</t>
+  </si>
+  <si>
+    <t>log_best21_v13.txt:val6.csv val_performance = 0.05851013946167492</t>
+  </si>
+  <si>
+    <t>log_best21_v13.txt:val7.csv val_performance = 0.009775939970495463</t>
+  </si>
+  <si>
+    <t>log_best21_v14.txt:val0.csv val_performance = 0.010242394098372918</t>
+  </si>
+  <si>
+    <t>log_best21_v14.txt:val1.csv val_performance = 0.029087236687367242</t>
+  </si>
+  <si>
+    <t>log_best21_v14.txt:val2.csv val_performance = 0.009914039596931807</t>
+  </si>
+  <si>
+    <t>log_best21_v14.txt:val3.csv val_performance = 0.057834396157438746</t>
+  </si>
+  <si>
+    <t>log_best21_v14.txt:val4.csv val_performance = 0.009727184594522684</t>
+  </si>
+  <si>
+    <t>log_best21_v14.txt:val5.csv val_performance = 0.009320302845780861</t>
+  </si>
+  <si>
+    <t>log_best21_v14.txt:val6.csv val_performance = 0.008914739841309463</t>
+  </si>
+  <si>
+    <t>log_best21_v14.txt:val7.csv val_performance = 0.009051294656079241</t>
+  </si>
+  <si>
+    <t>log_best21_v15.txt:val0.csv val_performance = 0.011095007056595689</t>
+  </si>
+  <si>
+    <t>log_best21_v15.txt:val1.csv val_performance = 0.011649857458504291</t>
+  </si>
+  <si>
+    <t>log_best21_v15.txt:val2.csv val_performance = 0.012803691310677668</t>
+  </si>
+  <si>
+    <t>log_best21_v15.txt:val3.csv val_performance = 0.010660788109360315</t>
+  </si>
+  <si>
+    <t>log_best21_v15.txt:val4.csv val_performance = 0.011736067625022507</t>
+  </si>
+  <si>
+    <t>log_best21_v15.txt:val5.csv val_performance = 0.011146045458653898</t>
+  </si>
+  <si>
+    <t>log_best21_v15.txt:val6.csv val_performance = 0.012314432564250239</t>
+  </si>
+  <si>
+    <t>log_best21_v15.txt:val7.csv val_performance = 0.010833341825966628</t>
+  </si>
+  <si>
+    <t>log_best21_v16.txt:val0.csv val_performance = 0.007532556367897087</t>
+  </si>
+  <si>
+    <t>log_best21_v16.txt:val1.csv val_performance = 0.007251325691224211</t>
+  </si>
+  <si>
+    <t>log_best21_v16.txt:val2.csv val_performance = 0.009274479120860529</t>
+  </si>
+  <si>
+    <t>log_best21_v16.txt:val3.csv val_performance = 0.00847855596307313</t>
+  </si>
+  <si>
+    <t>log_best21_v16.txt:val4.csv val_performance = 0.009211971186847034</t>
+  </si>
+  <si>
+    <t>log_best21_v16.txt:val5.csv val_performance = 0.008569556979162157</t>
+  </si>
+  <si>
+    <t>log_best21_v16.txt:val6.csv val_performance = 0.007710474288424404</t>
+  </si>
+  <si>
+    <t>log_best21_v16.txt:val7.csv val_performance = 0.007703552236957965</t>
+  </si>
+  <si>
+    <t>log_best21_v17.txt:val0.csv val_performance = 0.011689347707278839</t>
+  </si>
+  <si>
+    <t>log_best21_v17.txt:val1.csv val_performance = 0.010647100551468851</t>
+  </si>
+  <si>
+    <t>log_best21_v17.txt:val2.csv val_performance = 0.010325668327241092</t>
+  </si>
+  <si>
+    <t>log_best21_v17.txt:val3.csv val_performance = 0.01002166375634819</t>
+  </si>
+  <si>
+    <t>log_best21_v17.txt:val4.csv val_performance = 0.011676126755843785</t>
+  </si>
+  <si>
+    <t>log_best21_v17.txt:val5.csv val_performance = 0.010529191658657924</t>
+  </si>
+  <si>
+    <t>log_best21_v17.txt:val6.csv val_performance = 0.008661756088808856</t>
+  </si>
+  <si>
+    <t>log_best21_v17.txt:val7.csv val_performance = 0.008724678044981745</t>
+  </si>
+  <si>
+    <t>log_best21_v18.txt:val0.csv val_performance = 0.01010677336219836</t>
+  </si>
+  <si>
+    <t>log_best21_v18.txt:val1.csv val_performance = 0.008259827857090639</t>
+  </si>
+  <si>
+    <t>log_best21_v18.txt:val2.csv val_performance = 0.008955673725223543</t>
+  </si>
+  <si>
+    <t>log_best21_v18.txt:val3.csv val_performance = 0.010123000382112488</t>
+  </si>
+  <si>
+    <t>log_best21_v18.txt:val4.csv val_performance = 0.00860109275870535</t>
+  </si>
+  <si>
+    <t>log_best21_v18.txt:val5.csv val_performance = 0.00920542574989798</t>
+  </si>
+  <si>
+    <t>log_best21_v18.txt:val6.csv val_performance = 0.010266552871656993</t>
+  </si>
+  <si>
+    <t>log_best21_v18.txt:val7.csv val_performance = 0.00921384372436503</t>
+  </si>
+  <si>
+    <t>log_best21_v19.txt:val0.csv val_performance = 0.00832147989159264</t>
+  </si>
+  <si>
+    <t>log_best21_v19.txt:val1.csv val_performance = 0.007228770941823462</t>
+  </si>
+  <si>
+    <t>log_best21_v19.txt:val2.csv val_performance = 0.006595701483903725</t>
+  </si>
+  <si>
+    <t>log_best21_v19.txt:val3.csv val_performance = 0.008373110114790664</t>
+  </si>
+  <si>
+    <t>log_best21_v19.txt:val4.csv val_performance = 0.007339873025542152</t>
+  </si>
+  <si>
+    <t>log_best21_v19.txt:val5.csv val_performance = 0.009017765560100675</t>
+  </si>
+  <si>
+    <t>log_best21_v19.txt:val6.csv val_performance = 0.007368359605521645</t>
+  </si>
+  <si>
+    <t>log_best21_v19.txt:val7.csv val_performance = 0.007553781237488174</t>
+  </si>
+  <si>
+    <t>log_best21_v20.txt:val0.csv val_performance = 0.0073254233320826255</t>
+  </si>
+  <si>
+    <t>log_best21_v20.txt:val1.csv val_performance = 0.007366280424455239</t>
+  </si>
+  <si>
+    <t>log_best21_v20.txt:val2.csv val_performance = 0.0072284782972892704</t>
+  </si>
+  <si>
+    <t>log_best21_v20.txt:val3.csv val_performance = 0.009566506790245519</t>
+  </si>
+  <si>
+    <t>log_best21_v20.txt:val4.csv val_performance = 0.007220494043665177</t>
+  </si>
+  <si>
+    <t>log_best21_v20.txt:val5.csv val_performance = 0.009260833475017986</t>
+  </si>
+  <si>
+    <t>log_best21_v20.txt:val6.csv val_performance = 0.007577581537810733</t>
+  </si>
+  <si>
+    <t>log_best21_v20.txt:val7.csv val_performance = 0.007641690173616314</t>
+  </si>
+  <si>
+    <t>log_best21_v21.txt:val0.csv val_performance = 0.02070364843262148</t>
+  </si>
+  <si>
+    <t>log_best21_v21.txt:val1.csv val_performance = 0.0210600872777465</t>
+  </si>
+  <si>
+    <t>log_best21_v21.txt:val2.csv val_performance = 0.020140738549259733</t>
+  </si>
+  <si>
+    <t>log_best21_v21.txt:val3.csv val_performance = 0.01709275408692216</t>
+  </si>
+  <si>
+    <t>log_best21_v21.txt:val4.csv val_performance = 0.017183661618467346</t>
+  </si>
+  <si>
+    <t>log_best21_v21.txt:val5.csv val_performance = 0.019394803868896044</t>
+  </si>
+  <si>
+    <t>log_best21_v21.txt:val6.csv val_performance = 0.01914609618169201</t>
+  </si>
+  <si>
+    <t>log_best21_v21.txt:val7.csv val_performance = 0.016234278198350306</t>
+  </si>
+  <si>
+    <t>log_best21_v22.txt:val0.csv val_performance = 0.007689005140321752</t>
+  </si>
+  <si>
+    <t>log_best21_v22.txt:val1.csv val_performance = 0.009000550012773287</t>
+  </si>
+  <si>
+    <t>log_best21_v22.txt:val2.csv val_performance = 0.007825950983273601</t>
+  </si>
+  <si>
+    <t>log_best21_v22.txt:val3.csv val_performance = 0.007812437077311672</t>
+  </si>
+  <si>
+    <t>log_best21_v22.txt:val4.csv val_performance = 0.008879031687340428</t>
+  </si>
+  <si>
+    <t>log_best21_v22.txt:val5.csv val_performance = 0.008941586787046393</t>
+  </si>
+  <si>
+    <t>log_best21_v22.txt:val6.csv val_performance = 0.007732984660932034</t>
+  </si>
+  <si>
+    <t>log_best21_v22.txt:val7.csv val_performance = 0.008543110211509695</t>
+  </si>
+  <si>
+    <t>log_best21_v23.txt:val0.csv val_performance = 0.007327410698902702</t>
+  </si>
+  <si>
+    <t>log_best21_v23.txt:val1.csv val_performance = 0.008895576061260095</t>
+  </si>
+  <si>
+    <t>log_best21_v23.txt:val2.csv val_performance = 0.006999199912301175</t>
+  </si>
+  <si>
+    <t>log_best21_v23.txt:val3.csv val_performance = 0.00962854397444061</t>
+  </si>
+  <si>
+    <t>log_best21_v23.txt:val4.csv val_performance = 0.007624730346490994</t>
+  </si>
+  <si>
+    <t>log_best21_v23.txt:val5.csv val_performance = 0.009028328376471629</t>
+  </si>
+  <si>
+    <t>log_best21_v23.txt:val6.csv val_performance = 0.007793118205190226</t>
+  </si>
+  <si>
+    <t>log_best21_v23.txt:val7.csv val_performance = 0.009492371353012853</t>
+  </si>
+  <si>
+    <t>log_best21_v24.txt:val0.csv val_performance = 0.00721279283521568</t>
+  </si>
+  <si>
+    <t>log_best21_v24.txt:val1.csv val_performance = 0.00956651852601941</t>
+  </si>
+  <si>
+    <t>log_best21_v24.txt:val2.csv val_performance = 0.007957206820838957</t>
+  </si>
+  <si>
+    <t>log_best21_v24.txt:val3.csv val_performance = 0.00788540799586289</t>
+  </si>
+  <si>
+    <t>log_best21_v24.txt:val4.csv val_performance = 0.008828751644596048</t>
+  </si>
+  <si>
+    <t>log_best21_v24.txt:val5.csv val_performance = 0.007545064907151663</t>
+  </si>
+  <si>
+    <t>log_best21_v24.txt:val6.csv val_performance = 0.0073482373180002725</t>
+  </si>
+  <si>
+    <t>log_best21_v24.txt:val7.csv val_performance = 0.007530546136018913</t>
+  </si>
+  <si>
+    <t>log_best21_v25.txt:val0.csv val_performance = 0.007835031171930113</t>
+  </si>
+  <si>
+    <t>log_best21_v25.txt:val1.csv val_performance = 0.007454921839931311</t>
+  </si>
+  <si>
+    <t>log_best21_v25.txt:val2.csv val_performance = 0.007982482371149863</t>
+  </si>
+  <si>
+    <t>log_best21_v25.txt:val3.csv val_performance = 0.008950965842510362</t>
+  </si>
+  <si>
+    <t>log_best21_v25.txt:val4.csv val_performance = 0.007437703527351104</t>
+  </si>
+  <si>
+    <t>log_best21_v25.txt:val5.csv val_performance = 0.009126889216820545</t>
+  </si>
+  <si>
+    <t>log_best21_v25.txt:val6.csv val_performance = 0.00791917629893828</t>
+  </si>
+  <si>
+    <t>log_best21_v25.txt:val7.csv val_performance = 0.009525085202715826</t>
+  </si>
+  <si>
+    <t>log_best21_v26.txt:val0.csv val_performance = 0.010393904176181154</t>
+  </si>
+  <si>
+    <t>log_best21_v26.txt:val1.csv val_performance = 0.009560190091066428</t>
+  </si>
+  <si>
+    <t>log_best21_v26.txt:val2.csv val_performance = 0.0086685806198867</t>
+  </si>
+  <si>
+    <t>log_best21_v26.txt:val3.csv val_performance = 0.0097272437344993</t>
+  </si>
+  <si>
+    <t>log_best21_v26.txt:val4.csv val_performance = 0.010761954538176105</t>
+  </si>
+  <si>
+    <t>log_best21_v26.txt:val5.csv val_performance = 0.009554121400792957</t>
+  </si>
+  <si>
+    <t>log_best21_v26.txt:val6.csv val_performance = 0.010605728266946859</t>
+  </si>
+  <si>
+    <t>log_best21_v26.txt:val7.csv val_performance = 0.010021903147369048</t>
+  </si>
+  <si>
+    <t>log_best21_v27.txt:val0.csv val_performance = 0.009814482243009801</t>
+  </si>
+  <si>
+    <t>log_best21_v27.txt:val1.csv val_performance = 0.008266882706230284</t>
+  </si>
+  <si>
+    <t>log_best21_v27.txt:val2.csv val_performance = 0.00910325853900007</t>
+  </si>
+  <si>
+    <t>log_best21_v27.txt:val3.csv val_performance = 0.010425138932969672</t>
+  </si>
+  <si>
+    <t>log_best21_v27.txt:val4.csv val_performance = 0.008569233633994741</t>
+  </si>
+  <si>
+    <t>log_best21_v27.txt:val5.csv val_performance = 0.008577732265187212</t>
+  </si>
+  <si>
+    <t>log_best21_v27.txt:val6.csv val_performance = 0.008789280089869215</t>
+  </si>
+  <si>
+    <t>log_best21_v27.txt:val7.csv val_performance = 0.008951640820351409</t>
+  </si>
+  <si>
+    <t>log_best21_v28.txt:val0.csv val_performance = 0.12203972422279678</t>
+  </si>
+  <si>
+    <t>log_best21_v28.txt:val1.csv val_performance = 0.12137614017530624</t>
+  </si>
+  <si>
+    <t>log_best21_v28.txt:val2.csv val_performance = 0.1211234652557329</t>
+  </si>
+  <si>
+    <t>log_best21_v28.txt:val3.csv val_performance = 0.12159551334425259</t>
+  </si>
+  <si>
+    <t>log_best21_v28.txt:val4.csv val_performance = 0.12175122962052357</t>
+  </si>
+  <si>
+    <t>log_best21_v28.txt:val5.csv val_performance = 0.12130185181979945</t>
+  </si>
+  <si>
+    <t>log_best21_v28.txt:val6.csv val_performance = 0.030679574281390093</t>
+  </si>
+  <si>
+    <t>log_best21_v28.txt:val7.csv val_performance = 0.12166115148099162</t>
+  </si>
+  <si>
+    <t>log_best21_v29.txt:val0.csv val_performance = 0.008834193706310925</t>
+  </si>
+  <si>
+    <t>log_best21_v29.txt:val1.csv val_performance = 0.1213681890146086</t>
+  </si>
+  <si>
+    <t>log_best21_v29.txt:val2.csv val_performance = 0.040287538797782844</t>
+  </si>
+  <si>
+    <t>log_best21_v29.txt:val3.csv val_performance = 0.02454065653503342</t>
+  </si>
+  <si>
+    <t>log_best21_v29.txt:val4.csv val_performance = 0.007859260164666428</t>
+  </si>
+  <si>
+    <t>log_best21_v29.txt:val5.csv val_performance = 0.121311952867741</t>
+  </si>
+  <si>
+    <t>log_best21_v29.txt:val6.csv val_performance = 0.12143421532340416</t>
+  </si>
+  <si>
+    <t>log_best21_v29.txt:val7.csv val_performance = 0.12165504537278751</t>
+  </si>
+  <si>
+    <t>log_best21_v30.txt:val0.csv val_performance = 0.008552560539593005</t>
+  </si>
+  <si>
+    <t>log_best21_v30.txt:val1.csv val_performance = 0.010465103528142613</t>
+  </si>
+  <si>
+    <t>log_best21_v30.txt:val2.csv val_performance = 0.008970033008404774</t>
+  </si>
+  <si>
+    <t>log_best21_v30.txt:val3.csv val_performance = 0.009784948733517462</t>
+  </si>
+  <si>
+    <t>log_best21_v30.txt:val4.csv val_performance = 0.007868257641990407</t>
+  </si>
+  <si>
+    <t>log_best21_v30.txt:val5.csv val_performance = 0.009270483415580571</t>
+  </si>
+  <si>
+    <t>log_best21_v30.txt:val6.csv val_performance = 0.008420179462925576</t>
+  </si>
+  <si>
+    <t>log_best21_v30.txt:val7.csv val_performance = 0.009049613628009608</t>
+  </si>
+  <si>
+    <t>log_lstm+_v00.txt:val0.csv val_performance = 0.012077301454536728</t>
+  </si>
+  <si>
+    <t>log_lstm+_v00.txt:val1.csv val_performance = 0.011247609400471297</t>
+  </si>
+  <si>
+    <t>log_lstm+_v00.txt:val2.csv val_performance = 0.010817204291642629</t>
+  </si>
+  <si>
+    <t>log_lstm+_v00.txt:val3.csv val_performance = 0.012030721598226497</t>
+  </si>
+  <si>
+    <t>log_lstm+_v00.txt:val4.csv val_performance = 0.010501869164782088</t>
+  </si>
+  <si>
+    <t>log_lstm+_v00.txt:val5.csv val_performance = 0.010672862550560443</t>
+  </si>
+  <si>
+    <t>log_lstm+_v00.txt:val6.csv val_performance = 0.011850849296624303</t>
+  </si>
+  <si>
+    <t>log_lstm+_v00.txt:val7.csv val_performance = 0.011805429373094343</t>
+  </si>
+  <si>
+    <t>loss</t>
+  </si>
+  <si>
+    <t>Average of loss</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000\ %"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -992,7 +1769,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1002,17 +1779,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <alignment vertical="center"/>
     </dxf>
@@ -1095,6 +1870,77 @@
 </pivotCacheDefinition>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Chau Thi Thuy Tran" refreshedDate="44780.843143981481" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="256" xr:uid="{BE8E2A50-8FA4-4480-9720-55039CF31305}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="C1:F257" sheet="raw_loss"/>
+  </cacheSource>
+  <cacheFields count="4">
+    <cacheField name="model" numFmtId="0">
+      <sharedItems count="2">
+        <s v="best21"/>
+        <s v="lstm+"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="version" numFmtId="0">
+      <sharedItems count="31">
+        <s v="v00"/>
+        <s v="v01"/>
+        <s v="v02"/>
+        <s v="v03"/>
+        <s v="v04"/>
+        <s v="v05"/>
+        <s v="v06"/>
+        <s v="v07"/>
+        <s v="v08"/>
+        <s v="v09"/>
+        <s v="v10"/>
+        <s v="v11"/>
+        <s v="v12"/>
+        <s v="v13"/>
+        <s v="v14"/>
+        <s v="v15"/>
+        <s v="v16"/>
+        <s v="v17"/>
+        <s v="v18"/>
+        <s v="v19"/>
+        <s v="v20"/>
+        <s v="v21"/>
+        <s v="v22"/>
+        <s v="v23"/>
+        <s v="v24"/>
+        <s v="v25"/>
+        <s v="v26"/>
+        <s v="v27"/>
+        <s v="v28"/>
+        <s v="v29"/>
+        <s v="v30"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="data" numFmtId="0">
+      <sharedItems count="8">
+        <s v="val0"/>
+        <s v="val1"/>
+        <s v="val2"/>
+        <s v="val3"/>
+        <s v="val4"/>
+        <s v="val5"/>
+        <s v="val6"/>
+        <s v="val7"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="loss" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="6.5957014839037199E-3" maxValue="0.12203972422279601"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="256">
   <r>
@@ -2632,12 +3478,1553 @@
     <x v="0"/>
     <s v="val7"/>
     <n v="0.95721999999999996"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="256">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="8.5163814782438993E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="9.8024808905730603E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="7.1245395152256998E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="8.0608508848193407E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="8.7625985472862492E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="5"/>
+    <n v="8.5410308763925209E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="6"/>
+    <n v="6.9915578769549902E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="7"/>
+    <n v="8.7521712409915197E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="7.8773298216299591E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="8.89358525012603E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="8.0924560115299398E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="9.2841538553870007E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="7.8435555107764302E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="5"/>
+    <n v="8.4158561620149407E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="6"/>
+    <n v="7.5353829428345702E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="7"/>
+    <n v="8.8331670514798406E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="8.7447329868917505E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="7.2121161793635797E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="7.3829370835405599E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="9.2006414206038892E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="8.1639045496676894E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="5"/>
+    <n v="7.4506397338069798E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="6"/>
+    <n v="8.1973588745172798E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="7"/>
+    <n v="7.2583680552571698E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="8.4291414814340795E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="8.4183147678672694E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="9.3791575466464095E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="9.0019870041805998E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="4"/>
+    <n v="8.8960956247872008E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="5"/>
+    <n v="8.3006549002302994E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="6"/>
+    <n v="8.4642472618942401E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="7"/>
+    <n v="7.9011958456643907E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="7.2233750911982701E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="8.6480900964050304E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="2"/>
+    <n v="9.6777704163759203E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="3"/>
+    <n v="9.3956364870567896E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="4"/>
+    <n v="8.2728565763461499E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="5"/>
+    <n v="8.5496783382653305E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="6"/>
+    <n v="7.9477949583462593E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="7"/>
+    <n v="8.8018593760037997E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="0"/>
+    <n v="1.09255920213956E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="1"/>
+    <n v="9.8570320384421505E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="2"/>
+    <n v="9.3576159266575906E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="3"/>
+    <n v="9.4604553550191803E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="4"/>
+    <n v="9.8720792183841707E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="5"/>
+    <n v="9.0438889088600601E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="6"/>
+    <n v="9.9325438743304208E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="7"/>
+    <n v="8.9326939995127298E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+    <x v="0"/>
+    <n v="8.6645859805843002E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+    <x v="1"/>
+    <n v="8.8785561396607302E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+    <x v="2"/>
+    <n v="8.8535283244436293E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+    <x v="3"/>
+    <n v="1.0312957774488299E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+    <x v="4"/>
+    <n v="9.8226265628259708E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+    <x v="5"/>
+    <n v="9.0663904780587008E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+    <x v="6"/>
+    <n v="8.17946247341109E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+    <x v="7"/>
+    <n v="9.5297519411608397E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+    <x v="0"/>
+    <n v="8.7578491947962901E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+    <x v="1"/>
+    <n v="9.61563115151284E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+    <x v="2"/>
+    <n v="7.8156456579311501E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+    <x v="3"/>
+    <n v="9.1304123027299792E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+    <x v="4"/>
+    <n v="8.7781621616890397E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+    <x v="5"/>
+    <n v="9.9074182422907407E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+    <x v="6"/>
+    <n v="8.8351660518194604E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+    <x v="7"/>
+    <n v="1.0052889093743101E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="0"/>
+    <n v="1.0248483732277901E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="1"/>
+    <n v="1.14199309481653E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="2"/>
+    <n v="9.0160174541926395E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="3"/>
+    <n v="1.07497369040001E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="4"/>
+    <n v="8.8557818462718495E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="5"/>
+    <n v="1.03757002827383E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="6"/>
+    <n v="9.8366474069660498E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="7"/>
+    <n v="8.9781117615949698E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="9"/>
+    <x v="0"/>
+    <n v="1.0219242951314E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="9"/>
+    <x v="1"/>
+    <n v="9.12604190701659E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="9"/>
+    <x v="2"/>
+    <n v="7.7569271147087497E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="9"/>
+    <x v="3"/>
+    <n v="9.5032322662566299E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="9"/>
+    <x v="4"/>
+    <n v="7.9500612474682503E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="9"/>
+    <x v="5"/>
+    <n v="9.8294330652429207E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="9"/>
+    <x v="6"/>
+    <n v="8.0537299441699392E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="9"/>
+    <x v="7"/>
+    <n v="7.9287019106215693E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+    <n v="1.0371484864024101E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="1"/>
+    <n v="8.1318153153616696E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="2"/>
+    <n v="8.2526293144387607E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="3"/>
+    <n v="1.2088998526362801E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="4"/>
+    <n v="1.00113163631654E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="5"/>
+    <n v="7.5827408367993097E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="6"/>
+    <n v="8.46860266372137E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="7"/>
+    <n v="1.0097086714111501E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="11"/>
+    <x v="0"/>
+    <n v="8.9926008523296096E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="11"/>
+    <x v="1"/>
+    <n v="8.6167695096778692E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="11"/>
+    <x v="2"/>
+    <n v="9.2224592715340493E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="11"/>
+    <x v="3"/>
+    <n v="1.00449718027621E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="11"/>
+    <x v="4"/>
+    <n v="8.4224889668148093E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="11"/>
+    <x v="5"/>
+    <n v="1.12569787126197E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="11"/>
+    <x v="6"/>
+    <n v="1.11391674159E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="11"/>
+    <x v="7"/>
+    <n v="8.8928843817290305E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="12"/>
+    <x v="0"/>
+    <n v="3.0336793040335999E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="12"/>
+    <x v="1"/>
+    <n v="3.05026039273768E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="12"/>
+    <x v="2"/>
+    <n v="2.72030433289202E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="12"/>
+    <x v="3"/>
+    <n v="4.0624882658135103E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="12"/>
+    <x v="4"/>
+    <n v="3.2954132837884398E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="12"/>
+    <x v="5"/>
+    <n v="1.9879531236492099E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="12"/>
+    <x v="6"/>
+    <n v="0.121391622514794"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="12"/>
+    <x v="7"/>
+    <n v="3.3253070576451098E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+    <n v="9.96468869899211E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="1"/>
+    <n v="8.9900248707518605E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="2"/>
+    <n v="9.0619038038985394E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="3"/>
+    <n v="9.48280729485226E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="4"/>
+    <n v="7.0231017811166904E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="5"/>
+    <n v="9.8831426933478003E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="6"/>
+    <n v="5.8510139461674902E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="7"/>
+    <n v="9.7759399704954592E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="14"/>
+    <x v="0"/>
+    <n v="1.02423940983729E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="14"/>
+    <x v="1"/>
+    <n v="2.90872366873672E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="14"/>
+    <x v="2"/>
+    <n v="9.9140395969318004E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="14"/>
+    <x v="3"/>
+    <n v="5.7834396157438697E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="14"/>
+    <x v="4"/>
+    <n v="9.7271845945226792E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="14"/>
+    <x v="5"/>
+    <n v="9.3203028457808593E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="14"/>
+    <x v="6"/>
+    <n v="8.9147398413094592E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="14"/>
+    <x v="7"/>
+    <n v="9.0512946560792392E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="15"/>
+    <x v="0"/>
+    <n v="1.10950070565956E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="15"/>
+    <x v="1"/>
+    <n v="1.1649857458504199E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="15"/>
+    <x v="2"/>
+    <n v="1.2803691310677601E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="15"/>
+    <x v="3"/>
+    <n v="1.0660788109360299E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="15"/>
+    <x v="4"/>
+    <n v="1.17360676250225E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="15"/>
+    <x v="5"/>
+    <n v="1.1146045458653799E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="15"/>
+    <x v="6"/>
+    <n v="1.2314432564250201E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="15"/>
+    <x v="7"/>
+    <n v="1.08333418259666E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="16"/>
+    <x v="0"/>
+    <n v="7.5325563678970801E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="16"/>
+    <x v="1"/>
+    <n v="7.2513256912242101E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="16"/>
+    <x v="2"/>
+    <n v="9.2744791208605199E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="16"/>
+    <x v="3"/>
+    <n v="8.4785559630731304E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="16"/>
+    <x v="4"/>
+    <n v="9.2119711868470303E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="16"/>
+    <x v="5"/>
+    <n v="8.5695569791621497E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="16"/>
+    <x v="6"/>
+    <n v="7.7104742884244E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="16"/>
+    <x v="7"/>
+    <n v="7.70355223695796E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="17"/>
+    <x v="0"/>
+    <n v="1.1689347707278801E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="17"/>
+    <x v="1"/>
+    <n v="1.0647100551468801E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="17"/>
+    <x v="2"/>
+    <n v="1.0325668327241E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="17"/>
+    <x v="3"/>
+    <n v="1.0021663756348101E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="17"/>
+    <x v="4"/>
+    <n v="1.16761267558437E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="17"/>
+    <x v="5"/>
+    <n v="1.0529191658657899E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="17"/>
+    <x v="6"/>
+    <n v="8.6617560888088505E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="17"/>
+    <x v="7"/>
+    <n v="8.7246780449817402E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="18"/>
+    <x v="0"/>
+    <n v="1.01067733621983E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="18"/>
+    <x v="1"/>
+    <n v="8.2598278570906302E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="18"/>
+    <x v="2"/>
+    <n v="8.95567372522354E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="18"/>
+    <x v="3"/>
+    <n v="1.0123000382112401E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="18"/>
+    <x v="4"/>
+    <n v="8.6010927587053497E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="18"/>
+    <x v="5"/>
+    <n v="9.2054257498979802E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="18"/>
+    <x v="6"/>
+    <n v="1.0266552871656899E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="18"/>
+    <x v="7"/>
+    <n v="9.2138437243650308E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="19"/>
+    <x v="0"/>
+    <n v="8.3214798915926397E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="19"/>
+    <x v="1"/>
+    <n v="7.2287709418234602E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="19"/>
+    <x v="2"/>
+    <n v="6.5957014839037199E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="19"/>
+    <x v="3"/>
+    <n v="8.3731101147906592E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="19"/>
+    <x v="4"/>
+    <n v="7.3398730255421502E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="19"/>
+    <x v="5"/>
+    <n v="9.0177655601006695E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="19"/>
+    <x v="6"/>
+    <n v="7.3683596055216403E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="19"/>
+    <x v="7"/>
+    <n v="7.5537812374881696E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="20"/>
+    <x v="0"/>
+    <n v="7.3254233320826203E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="20"/>
+    <x v="1"/>
+    <n v="7.3662804244552299E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="20"/>
+    <x v="2"/>
+    <n v="7.2284782972892696E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="20"/>
+    <x v="3"/>
+    <n v="9.5665067902455103E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="20"/>
+    <x v="4"/>
+    <n v="7.2204940436651696E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="20"/>
+    <x v="5"/>
+    <n v="9.2608334750179794E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="20"/>
+    <x v="6"/>
+    <n v="7.5775815378107299E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="20"/>
+    <x v="7"/>
+    <n v="7.6416901736163102E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="21"/>
+    <x v="0"/>
+    <n v="2.0703648432621399E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="21"/>
+    <x v="1"/>
+    <n v="2.1060087277746501E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="21"/>
+    <x v="2"/>
+    <n v="2.0140738549259699E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="21"/>
+    <x v="3"/>
+    <n v="1.70927540869221E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="21"/>
+    <x v="4"/>
+    <n v="1.7183661618467301E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="21"/>
+    <x v="5"/>
+    <n v="1.9394803868895999E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="21"/>
+    <x v="6"/>
+    <n v="1.9146096181692E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="21"/>
+    <x v="7"/>
+    <n v="1.6234278198350299E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="22"/>
+    <x v="0"/>
+    <n v="7.6890051403217504E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="22"/>
+    <x v="1"/>
+    <n v="9.0005500127732802E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="22"/>
+    <x v="2"/>
+    <n v="7.8259509832735996E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="22"/>
+    <x v="3"/>
+    <n v="7.8124370773116703E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="22"/>
+    <x v="4"/>
+    <n v="8.8790316873404197E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="22"/>
+    <x v="5"/>
+    <n v="8.9415867870463895E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="22"/>
+    <x v="6"/>
+    <n v="7.7329846609320296E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="22"/>
+    <x v="7"/>
+    <n v="8.5431102115096896E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="23"/>
+    <x v="0"/>
+    <n v="7.3274106989026999E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="23"/>
+    <x v="1"/>
+    <n v="8.8955760612600895E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="23"/>
+    <x v="2"/>
+    <n v="6.9991999123011697E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="23"/>
+    <x v="3"/>
+    <n v="9.6285439744406096E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="23"/>
+    <x v="4"/>
+    <n v="7.6247303464909901E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="23"/>
+    <x v="5"/>
+    <n v="9.0283283764716199E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="23"/>
+    <x v="6"/>
+    <n v="7.7931182051902198E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="23"/>
+    <x v="7"/>
+    <n v="9.4923713530128493E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="24"/>
+    <x v="0"/>
+    <n v="7.2127928352156796E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="24"/>
+    <x v="1"/>
+    <n v="9.5665185260194099E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="24"/>
+    <x v="2"/>
+    <n v="7.9572068208389503E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="24"/>
+    <x v="3"/>
+    <n v="7.8854079958628892E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="24"/>
+    <x v="4"/>
+    <n v="8.8287516445960407E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="24"/>
+    <x v="5"/>
+    <n v="7.54506490715166E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="24"/>
+    <x v="6"/>
+    <n v="7.3482373180002699E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="24"/>
+    <x v="7"/>
+    <n v="7.5305461360189096E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="25"/>
+    <x v="0"/>
+    <n v="7.83503117193011E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="25"/>
+    <x v="1"/>
+    <n v="7.45492183993131E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="25"/>
+    <x v="2"/>
+    <n v="7.9824823711498599E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="25"/>
+    <x v="3"/>
+    <n v="8.9509658425103601E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="25"/>
+    <x v="4"/>
+    <n v="7.4377035273510998E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="25"/>
+    <x v="5"/>
+    <n v="9.1268892168205398E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="25"/>
+    <x v="6"/>
+    <n v="7.9191762989382804E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="25"/>
+    <x v="7"/>
+    <n v="9.5250852027158207E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="26"/>
+    <x v="0"/>
+    <n v="1.03939041761811E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="26"/>
+    <x v="1"/>
+    <n v="9.5601900910664197E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="26"/>
+    <x v="2"/>
+    <n v="8.6685806198866996E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="26"/>
+    <x v="3"/>
+    <n v="9.7272437344992999E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="26"/>
+    <x v="4"/>
+    <n v="1.07619545381761E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="26"/>
+    <x v="5"/>
+    <n v="9.5541214007929497E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="26"/>
+    <x v="6"/>
+    <n v="1.06057282669468E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="26"/>
+    <x v="7"/>
+    <n v="1.0021903147368999E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="27"/>
+    <x v="0"/>
+    <n v="9.8144822430097992E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="27"/>
+    <x v="1"/>
+    <n v="8.2668827062302806E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="27"/>
+    <x v="2"/>
+    <n v="9.1032585390000698E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="27"/>
+    <x v="3"/>
+    <n v="1.04251389329696E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="27"/>
+    <x v="4"/>
+    <n v="8.5692336339947394E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="27"/>
+    <x v="5"/>
+    <n v="8.5777322651872101E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="27"/>
+    <x v="6"/>
+    <n v="8.7892800898692093E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="27"/>
+    <x v="7"/>
+    <n v="8.9516408203513999E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="28"/>
+    <x v="0"/>
+    <n v="0.12203972422279601"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="28"/>
+    <x v="1"/>
+    <n v="0.121376140175306"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="28"/>
+    <x v="2"/>
+    <n v="0.121123465255732"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="28"/>
+    <x v="3"/>
+    <n v="0.121595513344252"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="28"/>
+    <x v="4"/>
+    <n v="0.121751229620523"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="28"/>
+    <x v="5"/>
+    <n v="0.12130185181979899"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="28"/>
+    <x v="6"/>
+    <n v="3.0679574281389999E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="28"/>
+    <x v="7"/>
+    <n v="0.12166115148099101"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="29"/>
+    <x v="0"/>
+    <n v="8.8341937063109201E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="29"/>
+    <x v="1"/>
+    <n v="0.121368189014608"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="29"/>
+    <x v="2"/>
+    <n v="4.0287538797782803E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="29"/>
+    <x v="3"/>
+    <n v="2.45406565350334E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="29"/>
+    <x v="4"/>
+    <n v="7.8592601646664192E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="29"/>
+    <x v="5"/>
+    <n v="0.121311952867741"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="29"/>
+    <x v="6"/>
+    <n v="0.121434215323404"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="29"/>
+    <x v="7"/>
+    <n v="0.121655045372787"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="30"/>
+    <x v="0"/>
+    <n v="8.5525605395929995E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="30"/>
+    <x v="1"/>
+    <n v="1.0465103528142601E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="30"/>
+    <x v="2"/>
+    <n v="8.9700330084047705E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="30"/>
+    <x v="3"/>
+    <n v="9.7849487335174602E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="30"/>
+    <x v="4"/>
+    <n v="7.8682576419904001E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="30"/>
+    <x v="5"/>
+    <n v="9.2704834155805695E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="30"/>
+    <x v="6"/>
+    <n v="8.4201794629255693E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="30"/>
+    <x v="7"/>
+    <n v="9.0496136280096007E-3"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="1.20773014545367E-2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="1.12476094004712E-2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="1.0817204291642599E-2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="1.20307215982264E-2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="1.0501869164781999E-2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="5"/>
+    <n v="1.0672862550560399E-2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="6"/>
+    <n v="1.18508492966243E-2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="7"/>
+    <n v="1.1805429373094299E-2"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{63E44667-EBB3-426A-9987-301343118B3D}" name="PivotTable4" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{63E44667-EBB3-426A-9987-301343118B3D}" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="F1:H34" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisCol" showAll="0">
@@ -2803,14 +5190,14 @@
     <dataField name="Average of acc" fld="3" subtotal="average" baseField="1" baseItem="0" numFmtId="164"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="3">
+    <format dxfId="1">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2">
+    <format dxfId="0">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
@@ -2819,6 +5206,192 @@
     </format>
   </formats>
   <pivotTableStyleInfo name="PivotStyleMedium16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6EC4806A-F9DB-4C79-96AF-332D66B1EBEF}" name="PivotTable4" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="H5:J37" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="4">
+    <pivotField axis="axisCol" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="32">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="31">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="27"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
+    <i>
+      <x v="30"/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="0"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Average of loss" fld="3" subtotal="average" baseField="1" baseItem="0" numFmtId="165"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
@@ -3129,11 +5702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H257"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:H34"/>
-      <pivotSelection pane="bottomRight" showHeader="1" activeCol="5" click="1" r:id="rId1">
-        <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-      </pivotSelection>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6996,7 +9566,7 @@
   <dimension ref="A1:B368"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B256" sqref="B1:B256"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9983,4 +12553,5652 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CA61812-970A-4FEB-9909-07A648BC8DE9}">
+  <dimension ref="A1:J257"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="64.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" customWidth="1"/>
+    <col min="9" max="9" width="8" customWidth="1"/>
+    <col min="10" max="10" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B2" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A2,".txt:","_"),".csv val_performance = ","_"),"log_","")</f>
+        <v>best21_v00_val0_0.008516381478243903</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>8.5163814782438993E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>306</v>
+      </c>
+      <c r="B3" t="str">
+        <f t="shared" ref="B3:B66" si="0">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A3,".txt:","_"),".csv val_performance = ","_"),"log_","")</f>
+        <v>best21_v00_val1_0.009802480890573067</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>9.8024808905730603E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>307</v>
+      </c>
+      <c r="B4" t="str">
+        <f t="shared" si="0"/>
+        <v>best21_v00_val2_0.007124539515225701</v>
+      </c>
+      <c r="C4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4">
+        <v>7.1245395152256998E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>308</v>
+      </c>
+      <c r="B5" t="str">
+        <f t="shared" si="0"/>
+        <v>best21_v00_val3_0.00806085088481934</v>
+      </c>
+      <c r="C5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5">
+        <v>8.0608508848193407E-3</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>309</v>
+      </c>
+      <c r="B6" t="str">
+        <f t="shared" si="0"/>
+        <v>best21_v00_val4_0.008762598547286253</v>
+      </c>
+      <c r="C6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6">
+        <v>8.7625985472862492E-3</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J6" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>310</v>
+      </c>
+      <c r="B7" t="str">
+        <f t="shared" si="0"/>
+        <v>best21_v00_val5_0.008541030876392524</v>
+      </c>
+      <c r="C7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7">
+        <v>8.5410308763925209E-3</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I7" s="6">
+        <v>8.3189514138109089E-3</v>
+      </c>
+      <c r="J7" s="6">
+        <v>1.1375480891242237E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>311</v>
+      </c>
+      <c r="B8" t="str">
+        <f t="shared" si="0"/>
+        <v>best21_v00_val6_0.006991557876954997</v>
+      </c>
+      <c r="C8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8">
+        <v>6.9915578769549902E-3</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="6">
+        <v>8.3469358257223392E-3</v>
+      </c>
+      <c r="J8" s="6"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>312</v>
+      </c>
+      <c r="B9" t="str">
+        <f t="shared" si="0"/>
+        <v>best21_v00_val7_0.008752171240991521</v>
+      </c>
+      <c r="C9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9">
+        <v>8.7521712409915197E-3</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" s="6">
+        <v>7.9513373604561139E-3</v>
+      </c>
+      <c r="J9" s="6"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>313</v>
+      </c>
+      <c r="B10" t="str">
+        <f t="shared" si="0"/>
+        <v>best21_v01_val0_0.00787732982162996</v>
+      </c>
+      <c r="C10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>7.8773298216299591E-3</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" s="6">
+        <v>8.598849304088059E-3</v>
+      </c>
+      <c r="J10" s="6"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>314</v>
+      </c>
+      <c r="B11" t="str">
+        <f t="shared" si="0"/>
+        <v>best21_v01_val1_0.008893585250126037</v>
+      </c>
+      <c r="C11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>8.89358525012603E-3</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" s="6">
+        <v>8.5646326674996935E-3</v>
+      </c>
+      <c r="J11" s="6"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>315</v>
+      </c>
+      <c r="B12" t="str">
+        <f t="shared" si="0"/>
+        <v>best21_v01_val2_0.00809245601152994</v>
+      </c>
+      <c r="C12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12">
+        <v>8.0924560115299398E-3</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" s="6">
+        <v>9.6727376678252368E-3</v>
+      </c>
+      <c r="J12" s="6"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>316</v>
+      </c>
+      <c r="B13" t="str">
+        <f t="shared" si="0"/>
+        <v>best21_v01_val3_0.009284153855387004</v>
+      </c>
+      <c r="C13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13">
+        <v>9.2841538553870007E-3</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" s="6">
+        <v>9.1634824593291933E-3</v>
+      </c>
+      <c r="J13" s="6"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>317</v>
+      </c>
+      <c r="B14" t="str">
+        <f t="shared" si="0"/>
+        <v>best21_v01_val4_0.007843555510776434</v>
+      </c>
+      <c r="C14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14">
+        <v>7.8435555107764302E-3</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" s="6">
+        <v>9.1116467320640753E-3</v>
+      </c>
+      <c r="J14" s="6"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>318</v>
+      </c>
+      <c r="B15" t="str">
+        <f t="shared" si="0"/>
+        <v>best21_v01_val5_0.008415856162014944</v>
+      </c>
+      <c r="C15" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15">
+        <v>8.4158561620149407E-3</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I15" s="6">
+        <v>9.9350512920258881E-3</v>
+      </c>
+      <c r="J15" s="6"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>319</v>
+      </c>
+      <c r="B16" t="str">
+        <f t="shared" si="0"/>
+        <v>best21_v01_val6_0.007535382942834576</v>
+      </c>
+      <c r="C16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16">
+        <v>7.5353829428345702E-3</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16" s="6">
+        <v>8.7959213008498311E-3</v>
+      </c>
+      <c r="J16" s="6"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>320</v>
+      </c>
+      <c r="B17" t="str">
+        <f t="shared" si="0"/>
+        <v>best21_v01_val7_0.008833167051479848</v>
+      </c>
+      <c r="C17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17">
+        <v>8.8331670514798406E-3</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I17" s="6">
+        <v>9.3755843247481131E-3</v>
+      </c>
+      <c r="J17" s="6"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>321</v>
+      </c>
+      <c r="B18" t="str">
+        <f t="shared" si="0"/>
+        <v>best21_v02_val0_0.008744732986891757</v>
+      </c>
+      <c r="C18" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>8.7447329868917505E-3</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I18" s="6">
+        <v>9.5735401141708951E-3</v>
+      </c>
+      <c r="J18" s="6"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>322</v>
+      </c>
+      <c r="B19" t="str">
+        <f t="shared" si="0"/>
+        <v>best21_v02_val1_0.007212116179363582</v>
+      </c>
+      <c r="C19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" t="s">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>7.2121161793635797E-3</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I19" s="6">
+        <v>4.2018210015048713E-2</v>
+      </c>
+      <c r="J19" s="6"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>323</v>
+      </c>
+      <c r="B20" t="str">
+        <f t="shared" si="0"/>
+        <v>best21_v02_val2_0.007382937083540564</v>
+      </c>
+      <c r="C20" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20">
+        <v>7.3829370835405599E-3</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I20" s="6">
+        <v>2.3237458075647484E-2</v>
+      </c>
+      <c r="J20" s="6"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>324</v>
+      </c>
+      <c r="B21" t="str">
+        <f t="shared" si="0"/>
+        <v>best21_v02_val3_0.009200641420603894</v>
+      </c>
+      <c r="C21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21">
+        <v>9.2006414206038892E-3</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I21" s="6">
+        <v>1.8011448559725356E-2</v>
+      </c>
+      <c r="J21" s="6"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>325</v>
+      </c>
+      <c r="B22" t="str">
+        <f t="shared" si="0"/>
+        <v>best21_v02_val4_0.008163904549667696</v>
+      </c>
+      <c r="C22" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" t="s">
+        <v>6</v>
+      </c>
+      <c r="F22">
+        <v>8.1639045496676894E-3</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I22" s="6">
+        <v>1.152990392612885E-2</v>
+      </c>
+      <c r="J22" s="6"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>326</v>
+      </c>
+      <c r="B23" t="str">
+        <f t="shared" si="0"/>
+        <v>best21_v02_val5_0.00745063973380698</v>
+      </c>
+      <c r="C23" t="s">
+        <v>0</v>
+      </c>
+      <c r="D23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23">
+        <v>7.4506397338069798E-3</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I23" s="6">
+        <v>8.2165589793058106E-3</v>
+      </c>
+      <c r="J23" s="6"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>327</v>
+      </c>
+      <c r="B24" t="str">
+        <f t="shared" si="0"/>
+        <v>best21_v02_val6_0.008197358874517283</v>
+      </c>
+      <c r="C24" t="s">
+        <v>0</v>
+      </c>
+      <c r="D24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24">
+        <v>8.1973588745172798E-3</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I24" s="6">
+        <v>1.0284441611328613E-2</v>
+      </c>
+      <c r="J24" s="6"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>328</v>
+      </c>
+      <c r="B25" t="str">
+        <f t="shared" si="0"/>
+        <v>best21_v02_val7_0.007258368055257177</v>
+      </c>
+      <c r="C25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25">
+        <v>7.2583680552571698E-3</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I25" s="6">
+        <v>9.3415238039062654E-3</v>
+      </c>
+      <c r="J25" s="6"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>329</v>
+      </c>
+      <c r="B26" t="str">
+        <f t="shared" si="0"/>
+        <v>best21_v03_val0_0.008429141481434086</v>
+      </c>
+      <c r="C26" t="s">
+        <v>0</v>
+      </c>
+      <c r="D26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" t="s">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>8.4291414814340795E-3</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I26" s="6">
+        <v>7.7248552325953884E-3</v>
+      </c>
+      <c r="J26" s="6"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>330</v>
+      </c>
+      <c r="B27" t="str">
+        <f t="shared" si="0"/>
+        <v>best21_v03_val1_0.00841831476786727</v>
+      </c>
+      <c r="C27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D27" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" t="s">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>8.4183147678672694E-3</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I27" s="6">
+        <v>7.8984110092728526E-3</v>
+      </c>
+      <c r="J27" s="6"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>331</v>
+      </c>
+      <c r="B28" t="str">
+        <f t="shared" si="0"/>
+        <v>best21_v03_val2_0.009379157546646418</v>
+      </c>
+      <c r="C28" t="s">
+        <v>0</v>
+      </c>
+      <c r="D28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" t="s">
+        <v>4</v>
+      </c>
+      <c r="F28">
+        <v>9.3791575466464095E-3</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I28" s="6">
+        <v>1.8869508526744412E-2</v>
+      </c>
+      <c r="J28" s="6"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>332</v>
+      </c>
+      <c r="B29" t="str">
+        <f t="shared" si="0"/>
+        <v>best21_v03_val3_0.009001987004180607</v>
+      </c>
+      <c r="C29" t="s">
+        <v>0</v>
+      </c>
+      <c r="D29" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29">
+        <v>9.0019870041805998E-3</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I29" s="6">
+        <v>8.303082070063604E-3</v>
+      </c>
+      <c r="J29" s="6"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>333</v>
+      </c>
+      <c r="B30" t="str">
+        <f t="shared" si="0"/>
+        <v>best21_v03_val4_0.008896095624787208</v>
+      </c>
+      <c r="C30" t="s">
+        <v>0</v>
+      </c>
+      <c r="D30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" t="s">
+        <v>6</v>
+      </c>
+      <c r="F30">
+        <v>8.8960956247872008E-3</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I30" s="6">
+        <v>8.3486598660087816E-3</v>
+      </c>
+      <c r="J30" s="6"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>334</v>
+      </c>
+      <c r="B31" t="str">
+        <f t="shared" si="0"/>
+        <v>best21_v03_val5_0.008300654900230308</v>
+      </c>
+      <c r="C31" t="s">
+        <v>0</v>
+      </c>
+      <c r="D31" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" t="s">
+        <v>7</v>
+      </c>
+      <c r="F31">
+        <v>8.3006549002302994E-3</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I31" s="6">
+        <v>7.9843157729629754E-3</v>
+      </c>
+      <c r="J31" s="6"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>335</v>
+      </c>
+      <c r="B32" t="str">
+        <f t="shared" si="0"/>
+        <v>best21_v03_val6_0.008464247261894249</v>
+      </c>
+      <c r="C32" t="s">
+        <v>0</v>
+      </c>
+      <c r="D32" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32">
+        <v>8.4642472618942401E-3</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I32" s="6">
+        <v>8.2790319339184227E-3</v>
+      </c>
+      <c r="J32" s="6"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>336</v>
+      </c>
+      <c r="B33" t="str">
+        <f t="shared" si="0"/>
+        <v>best21_v03_val7_0.007901195845664396</v>
+      </c>
+      <c r="C33" t="s">
+        <v>0</v>
+      </c>
+      <c r="D33" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33">
+        <v>7.9011958456643907E-3</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I33" s="6">
+        <v>9.9117032468647968E-3</v>
+      </c>
+      <c r="J33" s="6"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>337</v>
+      </c>
+      <c r="B34" t="str">
+        <f t="shared" si="0"/>
+        <v>best21_v04_val0_0.007223375091198274</v>
+      </c>
+      <c r="C34" t="s">
+        <v>0</v>
+      </c>
+      <c r="D34" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34" t="s">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>7.2233750911982701E-3</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I34" s="6">
+        <v>9.062206153826538E-3</v>
+      </c>
+      <c r="J34" s="6"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>338</v>
+      </c>
+      <c r="B35" t="str">
+        <f t="shared" si="0"/>
+        <v>best21_v04_val1_0.008648090096405036</v>
+      </c>
+      <c r="C35" t="s">
+        <v>0</v>
+      </c>
+      <c r="D35" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" t="s">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>8.6480900964050304E-3</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" s="6">
+        <v>0.11019108127509863</v>
+      </c>
+      <c r="J35" s="6"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>339</v>
+      </c>
+      <c r="B36" t="str">
+        <f t="shared" si="0"/>
+        <v>best21_v04_val2_0.009677770416375922</v>
+      </c>
+      <c r="C36" t="s">
+        <v>0</v>
+      </c>
+      <c r="D36" t="s">
+        <v>13</v>
+      </c>
+      <c r="E36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F36">
+        <v>9.6777704163759203E-3</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I36" s="6">
+        <v>7.091138147279169E-2</v>
+      </c>
+      <c r="J36" s="6"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>340</v>
+      </c>
+      <c r="B37" t="str">
+        <f t="shared" si="0"/>
+        <v>best21_v04_val3_0.009395636487056795</v>
+      </c>
+      <c r="C37" t="s">
+        <v>0</v>
+      </c>
+      <c r="D37" t="s">
+        <v>13</v>
+      </c>
+      <c r="E37" t="s">
+        <v>5</v>
+      </c>
+      <c r="F37">
+        <v>9.3956364870567896E-3</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I37" s="6">
+        <v>9.0476474947704978E-3</v>
+      </c>
+      <c r="J37" s="6"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>341</v>
+      </c>
+      <c r="B38" t="str">
+        <f t="shared" si="0"/>
+        <v>best21_v04_val4_0.008272856576346153</v>
+      </c>
+      <c r="C38" t="s">
+        <v>0</v>
+      </c>
+      <c r="D38" t="s">
+        <v>13</v>
+      </c>
+      <c r="E38" t="s">
+        <v>6</v>
+      </c>
+      <c r="F38">
+        <v>8.2728565763461499E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>342</v>
+      </c>
+      <c r="B39" t="str">
+        <f t="shared" si="0"/>
+        <v>best21_v04_val5_0.008549678338265337</v>
+      </c>
+      <c r="C39" t="s">
+        <v>0</v>
+      </c>
+      <c r="D39" t="s">
+        <v>13</v>
+      </c>
+      <c r="E39" t="s">
+        <v>7</v>
+      </c>
+      <c r="F39">
+        <v>8.5496783382653305E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>343</v>
+      </c>
+      <c r="B40" t="str">
+        <f t="shared" si="0"/>
+        <v>best21_v04_val6_0.007947794958346268</v>
+      </c>
+      <c r="C40" t="s">
+        <v>0</v>
+      </c>
+      <c r="D40" t="s">
+        <v>13</v>
+      </c>
+      <c r="E40" t="s">
+        <v>8</v>
+      </c>
+      <c r="F40">
+        <v>7.9477949583462593E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>344</v>
+      </c>
+      <c r="B41" t="str">
+        <f t="shared" si="0"/>
+        <v>best21_v04_val7_0.008801859376003807</v>
+      </c>
+      <c r="C41" t="s">
+        <v>0</v>
+      </c>
+      <c r="D41" t="s">
+        <v>13</v>
+      </c>
+      <c r="E41" t="s">
+        <v>9</v>
+      </c>
+      <c r="F41">
+        <v>8.8018593760037997E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>345</v>
+      </c>
+      <c r="B42" t="str">
+        <f t="shared" si="0"/>
+        <v>best21_v05_val0_0.01092559202139565</v>
+      </c>
+      <c r="C42" t="s">
+        <v>0</v>
+      </c>
+      <c r="D42" t="s">
+        <v>14</v>
+      </c>
+      <c r="E42" t="s">
+        <v>2</v>
+      </c>
+      <c r="F42">
+        <v>1.09255920213956E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>346</v>
+      </c>
+      <c r="B43" t="str">
+        <f t="shared" si="0"/>
+        <v>best21_v05_val1_0.009857032038442152</v>
+      </c>
+      <c r="C43" t="s">
+        <v>0</v>
+      </c>
+      <c r="D43" t="s">
+        <v>14</v>
+      </c>
+      <c r="E43" t="s">
+        <v>3</v>
+      </c>
+      <c r="F43">
+        <v>9.8570320384421505E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>347</v>
+      </c>
+      <c r="B44" t="str">
+        <f t="shared" si="0"/>
+        <v>best21_v05_val2_0.009357615926657598</v>
+      </c>
+      <c r="C44" t="s">
+        <v>0</v>
+      </c>
+      <c r="D44" t="s">
+        <v>14</v>
+      </c>
+      <c r="E44" t="s">
+        <v>4</v>
+      </c>
+      <c r="F44">
+        <v>9.3576159266575906E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>348</v>
+      </c>
+      <c r="B45" t="str">
+        <f t="shared" si="0"/>
+        <v>best21_v05_val3_0.009460455355019185</v>
+      </c>
+      <c r="C45" t="s">
+        <v>0</v>
+      </c>
+      <c r="D45" t="s">
+        <v>14</v>
+      </c>
+      <c r="E45" t="s">
+        <v>5</v>
+      </c>
+      <c r="F45">
+        <v>9.4604553550191803E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>349</v>
+      </c>
+      <c r="B46" t="str">
+        <f t="shared" si="0"/>
+        <v>best21_v05_val4_0.00987207921838417</v>
+      </c>
+      <c r="C46" t="s">
+        <v>0</v>
+      </c>
+      <c r="D46" t="s">
+        <v>14</v>
+      </c>
+      <c r="E46" t="s">
+        <v>6</v>
+      </c>
+      <c r="F46">
+        <v>9.8720792183841707E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>350</v>
+      </c>
+      <c r="B47" t="str">
+        <f t="shared" si="0"/>
+        <v>best21_v05_val5_0.009043888908860067</v>
+      </c>
+      <c r="C47" t="s">
+        <v>0</v>
+      </c>
+      <c r="D47" t="s">
+        <v>14</v>
+      </c>
+      <c r="E47" t="s">
+        <v>7</v>
+      </c>
+      <c r="F47">
+        <v>9.0438889088600601E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>351</v>
+      </c>
+      <c r="B48" t="str">
+        <f t="shared" si="0"/>
+        <v>best21_v05_val6_0.009932543874330426</v>
+      </c>
+      <c r="C48" t="s">
+        <v>0</v>
+      </c>
+      <c r="D48" t="s">
+        <v>14</v>
+      </c>
+      <c r="E48" t="s">
+        <v>8</v>
+      </c>
+      <c r="F48">
+        <v>9.9325438743304208E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>352</v>
+      </c>
+      <c r="B49" t="str">
+        <f t="shared" si="0"/>
+        <v>best21_v05_val7_0.008932693999512735</v>
+      </c>
+      <c r="C49" t="s">
+        <v>0</v>
+      </c>
+      <c r="D49" t="s">
+        <v>14</v>
+      </c>
+      <c r="E49" t="s">
+        <v>9</v>
+      </c>
+      <c r="F49">
+        <v>8.9326939995127298E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>353</v>
+      </c>
+      <c r="B50" t="str">
+        <f t="shared" si="0"/>
+        <v>best21_v06_val0_0.008664585980584307</v>
+      </c>
+      <c r="C50" t="s">
+        <v>0</v>
+      </c>
+      <c r="D50" t="s">
+        <v>15</v>
+      </c>
+      <c r="E50" t="s">
+        <v>2</v>
+      </c>
+      <c r="F50">
+        <v>8.6645859805843002E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>354</v>
+      </c>
+      <c r="B51" t="str">
+        <f t="shared" si="0"/>
+        <v>best21_v06_val1_0.008878556139660732</v>
+      </c>
+      <c r="C51" t="s">
+        <v>0</v>
+      </c>
+      <c r="D51" t="s">
+        <v>15</v>
+      </c>
+      <c r="E51" t="s">
+        <v>3</v>
+      </c>
+      <c r="F51">
+        <v>8.8785561396607302E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>355</v>
+      </c>
+      <c r="B52" t="str">
+        <f t="shared" si="0"/>
+        <v>best21_v06_val2_0.008853528324443633</v>
+      </c>
+      <c r="C52" t="s">
+        <v>0</v>
+      </c>
+      <c r="D52" t="s">
+        <v>15</v>
+      </c>
+      <c r="E52" t="s">
+        <v>4</v>
+      </c>
+      <c r="F52">
+        <v>8.8535283244436293E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>356</v>
+      </c>
+      <c r="B53" t="str">
+        <f t="shared" si="0"/>
+        <v>best21_v06_val3_0.010312957774488301</v>
+      </c>
+      <c r="C53" t="s">
+        <v>0</v>
+      </c>
+      <c r="D53" t="s">
+        <v>15</v>
+      </c>
+      <c r="E53" t="s">
+        <v>5</v>
+      </c>
+      <c r="F53">
+        <v>1.0312957774488299E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>357</v>
+      </c>
+      <c r="B54" t="str">
+        <f t="shared" si="0"/>
+        <v>best21_v06_val4_0.009822626562825973</v>
+      </c>
+      <c r="C54" t="s">
+        <v>0</v>
+      </c>
+      <c r="D54" t="s">
+        <v>15</v>
+      </c>
+      <c r="E54" t="s">
+        <v>6</v>
+      </c>
+      <c r="F54">
+        <v>9.8226265628259708E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>358</v>
+      </c>
+      <c r="B55" t="str">
+        <f t="shared" si="0"/>
+        <v>best21_v06_val5_0.0090663904780587</v>
+      </c>
+      <c r="C55" t="s">
+        <v>0</v>
+      </c>
+      <c r="D55" t="s">
+        <v>15</v>
+      </c>
+      <c r="E55" t="s">
+        <v>7</v>
+      </c>
+      <c r="F55">
+        <v>9.0663904780587008E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>359</v>
+      </c>
+      <c r="B56" t="str">
+        <f t="shared" si="0"/>
+        <v>best21_v06_val6_0.00817946247341109</v>
+      </c>
+      <c r="C56" t="s">
+        <v>0</v>
+      </c>
+      <c r="D56" t="s">
+        <v>15</v>
+      </c>
+      <c r="E56" t="s">
+        <v>8</v>
+      </c>
+      <c r="F56">
+        <v>8.17946247341109E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>360</v>
+      </c>
+      <c r="B57" t="str">
+        <f t="shared" si="0"/>
+        <v>best21_v06_val7_0.009529751941160845</v>
+      </c>
+      <c r="C57" t="s">
+        <v>0</v>
+      </c>
+      <c r="D57" t="s">
+        <v>15</v>
+      </c>
+      <c r="E57" t="s">
+        <v>9</v>
+      </c>
+      <c r="F57">
+        <v>9.5297519411608397E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>361</v>
+      </c>
+      <c r="B58" t="str">
+        <f t="shared" si="0"/>
+        <v>best21_v07_val0_0.008757849194796294</v>
+      </c>
+      <c r="C58" t="s">
+        <v>0</v>
+      </c>
+      <c r="D58" t="s">
+        <v>16</v>
+      </c>
+      <c r="E58" t="s">
+        <v>2</v>
+      </c>
+      <c r="F58">
+        <v>8.7578491947962901E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>362</v>
+      </c>
+      <c r="B59" t="str">
+        <f t="shared" si="0"/>
+        <v>best21_v07_val1_0.009615631151512843</v>
+      </c>
+      <c r="C59" t="s">
+        <v>0</v>
+      </c>
+      <c r="D59" t="s">
+        <v>16</v>
+      </c>
+      <c r="E59" t="s">
+        <v>3</v>
+      </c>
+      <c r="F59">
+        <v>9.61563115151284E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>363</v>
+      </c>
+      <c r="B60" t="str">
+        <f t="shared" si="0"/>
+        <v>best21_v07_val2_0.007815645657931155</v>
+      </c>
+      <c r="C60" t="s">
+        <v>0</v>
+      </c>
+      <c r="D60" t="s">
+        <v>16</v>
+      </c>
+      <c r="E60" t="s">
+        <v>4</v>
+      </c>
+      <c r="F60">
+        <v>7.8156456579311501E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>364</v>
+      </c>
+      <c r="B61" t="str">
+        <f t="shared" si="0"/>
+        <v>best21_v07_val3_0.00913041230272998</v>
+      </c>
+      <c r="C61" t="s">
+        <v>0</v>
+      </c>
+      <c r="D61" t="s">
+        <v>16</v>
+      </c>
+      <c r="E61" t="s">
+        <v>5</v>
+      </c>
+      <c r="F61">
+        <v>9.1304123027299792E-3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>365</v>
+      </c>
+      <c r="B62" t="str">
+        <f t="shared" si="0"/>
+        <v>best21_v07_val4_0.008778162161689048</v>
+      </c>
+      <c r="C62" t="s">
+        <v>0</v>
+      </c>
+      <c r="D62" t="s">
+        <v>16</v>
+      </c>
+      <c r="E62" t="s">
+        <v>6</v>
+      </c>
+      <c r="F62">
+        <v>8.7781621616890397E-3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>366</v>
+      </c>
+      <c r="B63" t="str">
+        <f t="shared" si="0"/>
+        <v>best21_v07_val5_0.009907418242290746</v>
+      </c>
+      <c r="C63" t="s">
+        <v>0</v>
+      </c>
+      <c r="D63" t="s">
+        <v>16</v>
+      </c>
+      <c r="E63" t="s">
+        <v>7</v>
+      </c>
+      <c r="F63">
+        <v>9.9074182422907407E-3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>367</v>
+      </c>
+      <c r="B64" t="str">
+        <f t="shared" si="0"/>
+        <v>best21_v07_val6_0.008835166051819466</v>
+      </c>
+      <c r="C64" t="s">
+        <v>0</v>
+      </c>
+      <c r="D64" t="s">
+        <v>16</v>
+      </c>
+      <c r="E64" t="s">
+        <v>8</v>
+      </c>
+      <c r="F64">
+        <v>8.8351660518194604E-3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>368</v>
+      </c>
+      <c r="B65" t="str">
+        <f t="shared" si="0"/>
+        <v>best21_v07_val7_0.010052889093743172</v>
+      </c>
+      <c r="C65" t="s">
+        <v>0</v>
+      </c>
+      <c r="D65" t="s">
+        <v>16</v>
+      </c>
+      <c r="E65" t="s">
+        <v>9</v>
+      </c>
+      <c r="F65">
+        <v>1.0052889093743101E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>369</v>
+      </c>
+      <c r="B66" t="str">
+        <f t="shared" si="0"/>
+        <v>best21_v08_val0_0.010248483732277928</v>
+      </c>
+      <c r="C66" t="s">
+        <v>0</v>
+      </c>
+      <c r="D66" t="s">
+        <v>17</v>
+      </c>
+      <c r="E66" t="s">
+        <v>2</v>
+      </c>
+      <c r="F66">
+        <v>1.0248483732277901E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>370</v>
+      </c>
+      <c r="B67" t="str">
+        <f t="shared" ref="B67:B130" si="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A67,".txt:","_"),".csv val_performance = ","_"),"log_","")</f>
+        <v>best21_v08_val1_0.011419930948165333</v>
+      </c>
+      <c r="C67" t="s">
+        <v>0</v>
+      </c>
+      <c r="D67" t="s">
+        <v>17</v>
+      </c>
+      <c r="E67" t="s">
+        <v>3</v>
+      </c>
+      <c r="F67">
+        <v>1.14199309481653E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>371</v>
+      </c>
+      <c r="B68" t="str">
+        <f t="shared" si="1"/>
+        <v>best21_v08_val2_0.00901601745419264</v>
+      </c>
+      <c r="C68" t="s">
+        <v>0</v>
+      </c>
+      <c r="D68" t="s">
+        <v>17</v>
+      </c>
+      <c r="E68" t="s">
+        <v>4</v>
+      </c>
+      <c r="F68">
+        <v>9.0160174541926395E-3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>372</v>
+      </c>
+      <c r="B69" t="str">
+        <f t="shared" si="1"/>
+        <v>best21_v08_val3_0.010749736904000176</v>
+      </c>
+      <c r="C69" t="s">
+        <v>0</v>
+      </c>
+      <c r="D69" t="s">
+        <v>17</v>
+      </c>
+      <c r="E69" t="s">
+        <v>5</v>
+      </c>
+      <c r="F69">
+        <v>1.07497369040001E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>373</v>
+      </c>
+      <c r="B70" t="str">
+        <f t="shared" si="1"/>
+        <v>best21_v08_val4_0.008855781846271853</v>
+      </c>
+      <c r="C70" t="s">
+        <v>0</v>
+      </c>
+      <c r="D70" t="s">
+        <v>17</v>
+      </c>
+      <c r="E70" t="s">
+        <v>6</v>
+      </c>
+      <c r="F70">
+        <v>8.8557818462718495E-3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>374</v>
+      </c>
+      <c r="B71" t="str">
+        <f t="shared" si="1"/>
+        <v>best21_v08_val5_0.010375700282738305</v>
+      </c>
+      <c r="C71" t="s">
+        <v>0</v>
+      </c>
+      <c r="D71" t="s">
+        <v>17</v>
+      </c>
+      <c r="E71" t="s">
+        <v>7</v>
+      </c>
+      <c r="F71">
+        <v>1.03757002827383E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>375</v>
+      </c>
+      <c r="B72" t="str">
+        <f t="shared" si="1"/>
+        <v>best21_v08_val6_0.00983664740696605</v>
+      </c>
+      <c r="C72" t="s">
+        <v>0</v>
+      </c>
+      <c r="D72" t="s">
+        <v>17</v>
+      </c>
+      <c r="E72" t="s">
+        <v>8</v>
+      </c>
+      <c r="F72">
+        <v>9.8366474069660498E-3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>376</v>
+      </c>
+      <c r="B73" t="str">
+        <f t="shared" si="1"/>
+        <v>best21_v08_val7_0.008978111761594973</v>
+      </c>
+      <c r="C73" t="s">
+        <v>0</v>
+      </c>
+      <c r="D73" t="s">
+        <v>17</v>
+      </c>
+      <c r="E73" t="s">
+        <v>9</v>
+      </c>
+      <c r="F73">
+        <v>8.9781117615949698E-3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>377</v>
+      </c>
+      <c r="B74" t="str">
+        <f t="shared" si="1"/>
+        <v>best21_v09_val0_0.010219242951314053</v>
+      </c>
+      <c r="C74" t="s">
+        <v>0</v>
+      </c>
+      <c r="D74" t="s">
+        <v>18</v>
+      </c>
+      <c r="E74" t="s">
+        <v>2</v>
+      </c>
+      <c r="F74">
+        <v>1.0219242951314E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>378</v>
+      </c>
+      <c r="B75" t="str">
+        <f t="shared" si="1"/>
+        <v>best21_v09_val1_0.009126041907016599</v>
+      </c>
+      <c r="C75" t="s">
+        <v>0</v>
+      </c>
+      <c r="D75" t="s">
+        <v>18</v>
+      </c>
+      <c r="E75" t="s">
+        <v>3</v>
+      </c>
+      <c r="F75">
+        <v>9.12604190701659E-3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>379</v>
+      </c>
+      <c r="B76" t="str">
+        <f t="shared" si="1"/>
+        <v>best21_v09_val2_0.0077569271147087514</v>
+      </c>
+      <c r="C76" t="s">
+        <v>0</v>
+      </c>
+      <c r="D76" t="s">
+        <v>18</v>
+      </c>
+      <c r="E76" t="s">
+        <v>4</v>
+      </c>
+      <c r="F76">
+        <v>7.7569271147087497E-3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>380</v>
+      </c>
+      <c r="B77" t="str">
+        <f t="shared" si="1"/>
+        <v>best21_v09_val3_0.009503232266256635</v>
+      </c>
+      <c r="C77" t="s">
+        <v>0</v>
+      </c>
+      <c r="D77" t="s">
+        <v>18</v>
+      </c>
+      <c r="E77" t="s">
+        <v>5</v>
+      </c>
+      <c r="F77">
+        <v>9.5032322662566299E-3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>381</v>
+      </c>
+      <c r="B78" t="str">
+        <f t="shared" si="1"/>
+        <v>best21_v09_val4_0.007950061247468257</v>
+      </c>
+      <c r="C78" t="s">
+        <v>0</v>
+      </c>
+      <c r="D78" t="s">
+        <v>18</v>
+      </c>
+      <c r="E78" t="s">
+        <v>6</v>
+      </c>
+      <c r="F78">
+        <v>7.9500612474682503E-3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>382</v>
+      </c>
+      <c r="B79" t="str">
+        <f t="shared" si="1"/>
+        <v>best21_v09_val5_0.009829433065242928</v>
+      </c>
+      <c r="C79" t="s">
+        <v>0</v>
+      </c>
+      <c r="D79" t="s">
+        <v>18</v>
+      </c>
+      <c r="E79" t="s">
+        <v>7</v>
+      </c>
+      <c r="F79">
+        <v>9.8294330652429207E-3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>383</v>
+      </c>
+      <c r="B80" t="str">
+        <f t="shared" si="1"/>
+        <v>best21_v09_val6_0.008053729944169948</v>
+      </c>
+      <c r="C80" t="s">
+        <v>0</v>
+      </c>
+      <c r="D80" t="s">
+        <v>18</v>
+      </c>
+      <c r="E80" t="s">
+        <v>8</v>
+      </c>
+      <c r="F80">
+        <v>8.0537299441699392E-3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>384</v>
+      </c>
+      <c r="B81" t="str">
+        <f t="shared" si="1"/>
+        <v>best21_v09_val7_0.007928701910621578</v>
+      </c>
+      <c r="C81" t="s">
+        <v>0</v>
+      </c>
+      <c r="D81" t="s">
+        <v>18</v>
+      </c>
+      <c r="E81" t="s">
+        <v>9</v>
+      </c>
+      <c r="F81">
+        <v>7.9287019106215693E-3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>385</v>
+      </c>
+      <c r="B82" t="str">
+        <f t="shared" si="1"/>
+        <v>best21_v10_val0_0.010371484864024155</v>
+      </c>
+      <c r="C82" t="s">
+        <v>0</v>
+      </c>
+      <c r="D82" t="s">
+        <v>19</v>
+      </c>
+      <c r="E82" t="s">
+        <v>2</v>
+      </c>
+      <c r="F82">
+        <v>1.0371484864024101E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>386</v>
+      </c>
+      <c r="B83" t="str">
+        <f t="shared" si="1"/>
+        <v>best21_v10_val1_0.008131815315361677</v>
+      </c>
+      <c r="C83" t="s">
+        <v>0</v>
+      </c>
+      <c r="D83" t="s">
+        <v>19</v>
+      </c>
+      <c r="E83" t="s">
+        <v>3</v>
+      </c>
+      <c r="F83">
+        <v>8.1318153153616696E-3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>387</v>
+      </c>
+      <c r="B84" t="str">
+        <f t="shared" si="1"/>
+        <v>best21_v10_val2_0.008252629314438762</v>
+      </c>
+      <c r="C84" t="s">
+        <v>0</v>
+      </c>
+      <c r="D84" t="s">
+        <v>19</v>
+      </c>
+      <c r="E84" t="s">
+        <v>4</v>
+      </c>
+      <c r="F84">
+        <v>8.2526293144387607E-3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>388</v>
+      </c>
+      <c r="B85" t="str">
+        <f t="shared" si="1"/>
+        <v>best21_v10_val3_0.012088998526362863</v>
+      </c>
+      <c r="C85" t="s">
+        <v>0</v>
+      </c>
+      <c r="D85" t="s">
+        <v>19</v>
+      </c>
+      <c r="E85" t="s">
+        <v>5</v>
+      </c>
+      <c r="F85">
+        <v>1.2088998526362801E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>389</v>
+      </c>
+      <c r="B86" t="str">
+        <f t="shared" si="1"/>
+        <v>best21_v10_val4_0.010011316363165448</v>
+      </c>
+      <c r="C86" t="s">
+        <v>0</v>
+      </c>
+      <c r="D86" t="s">
+        <v>19</v>
+      </c>
+      <c r="E86" t="s">
+        <v>6</v>
+      </c>
+      <c r="F86">
+        <v>1.00113163631654E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>390</v>
+      </c>
+      <c r="B87" t="str">
+        <f t="shared" si="1"/>
+        <v>best21_v10_val5_0.007582740836799317</v>
+      </c>
+      <c r="C87" t="s">
+        <v>0</v>
+      </c>
+      <c r="D87" t="s">
+        <v>19</v>
+      </c>
+      <c r="E87" t="s">
+        <v>7</v>
+      </c>
+      <c r="F87">
+        <v>7.5827408367993097E-3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>391</v>
+      </c>
+      <c r="B88" t="str">
+        <f t="shared" si="1"/>
+        <v>best21_v10_val6_0.008468602663721372</v>
+      </c>
+      <c r="C88" t="s">
+        <v>0</v>
+      </c>
+      <c r="D88" t="s">
+        <v>19</v>
+      </c>
+      <c r="E88" t="s">
+        <v>8</v>
+      </c>
+      <c r="F88">
+        <v>8.46860266372137E-3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>392</v>
+      </c>
+      <c r="B89" t="str">
+        <f t="shared" si="1"/>
+        <v>best21_v10_val7_0.010097086714111516</v>
+      </c>
+      <c r="C89" t="s">
+        <v>0</v>
+      </c>
+      <c r="D89" t="s">
+        <v>19</v>
+      </c>
+      <c r="E89" t="s">
+        <v>9</v>
+      </c>
+      <c r="F89">
+        <v>1.0097086714111501E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>393</v>
+      </c>
+      <c r="B90" t="str">
+        <f t="shared" si="1"/>
+        <v>best21_v11_val0_0.00899260085232961</v>
+      </c>
+      <c r="C90" t="s">
+        <v>0</v>
+      </c>
+      <c r="D90" t="s">
+        <v>20</v>
+      </c>
+      <c r="E90" t="s">
+        <v>2</v>
+      </c>
+      <c r="F90">
+        <v>8.9926008523296096E-3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>394</v>
+      </c>
+      <c r="B91" t="str">
+        <f t="shared" si="1"/>
+        <v>best21_v11_val1_0.008616769509677871</v>
+      </c>
+      <c r="C91" t="s">
+        <v>0</v>
+      </c>
+      <c r="D91" t="s">
+        <v>20</v>
+      </c>
+      <c r="E91" t="s">
+        <v>3</v>
+      </c>
+      <c r="F91">
+        <v>8.6167695096778692E-3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>395</v>
+      </c>
+      <c r="B92" t="str">
+        <f t="shared" si="1"/>
+        <v>best21_v11_val2_0.00922245927153405</v>
+      </c>
+      <c r="C92" t="s">
+        <v>0</v>
+      </c>
+      <c r="D92" t="s">
+        <v>20</v>
+      </c>
+      <c r="E92" t="s">
+        <v>4</v>
+      </c>
+      <c r="F92">
+        <v>9.2224592715340493E-3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>396</v>
+      </c>
+      <c r="B93" t="str">
+        <f t="shared" si="1"/>
+        <v>best21_v11_val3_0.010044971802762133</v>
+      </c>
+      <c r="C93" t="s">
+        <v>0</v>
+      </c>
+      <c r="D93" t="s">
+        <v>20</v>
+      </c>
+      <c r="E93" t="s">
+        <v>5</v>
+      </c>
+      <c r="F93">
+        <v>1.00449718027621E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>397</v>
+      </c>
+      <c r="B94" t="str">
+        <f t="shared" si="1"/>
+        <v>best21_v11_val4_0.00842248896681481</v>
+      </c>
+      <c r="C94" t="s">
+        <v>0</v>
+      </c>
+      <c r="D94" t="s">
+        <v>20</v>
+      </c>
+      <c r="E94" t="s">
+        <v>6</v>
+      </c>
+      <c r="F94">
+        <v>8.4224889668148093E-3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>398</v>
+      </c>
+      <c r="B95" t="str">
+        <f t="shared" si="1"/>
+        <v>best21_v11_val5_0.011256978712619745</v>
+      </c>
+      <c r="C95" t="s">
+        <v>0</v>
+      </c>
+      <c r="D95" t="s">
+        <v>20</v>
+      </c>
+      <c r="E95" t="s">
+        <v>7</v>
+      </c>
+      <c r="F95">
+        <v>1.12569787126197E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>399</v>
+      </c>
+      <c r="B96" t="str">
+        <f t="shared" si="1"/>
+        <v>best21_v11_val6_0.01113916741590002</v>
+      </c>
+      <c r="C96" t="s">
+        <v>0</v>
+      </c>
+      <c r="D96" t="s">
+        <v>20</v>
+      </c>
+      <c r="E96" t="s">
+        <v>8</v>
+      </c>
+      <c r="F96">
+        <v>1.11391674159E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>400</v>
+      </c>
+      <c r="B97" t="str">
+        <f t="shared" si="1"/>
+        <v>best21_v11_val7_0.008892884381729037</v>
+      </c>
+      <c r="C97" t="s">
+        <v>0</v>
+      </c>
+      <c r="D97" t="s">
+        <v>20</v>
+      </c>
+      <c r="E97" t="s">
+        <v>9</v>
+      </c>
+      <c r="F97">
+        <v>8.8928843817290305E-3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>401</v>
+      </c>
+      <c r="B98" t="str">
+        <f t="shared" si="1"/>
+        <v>best21_v12_val0_0.030336793040336</v>
+      </c>
+      <c r="C98" t="s">
+        <v>0</v>
+      </c>
+      <c r="D98" t="s">
+        <v>21</v>
+      </c>
+      <c r="E98" t="s">
+        <v>2</v>
+      </c>
+      <c r="F98">
+        <v>3.0336793040335999E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>402</v>
+      </c>
+      <c r="B99" t="str">
+        <f t="shared" si="1"/>
+        <v>best21_v12_val1_0.03050260392737689</v>
+      </c>
+      <c r="C99" t="s">
+        <v>0</v>
+      </c>
+      <c r="D99" t="s">
+        <v>21</v>
+      </c>
+      <c r="E99" t="s">
+        <v>3</v>
+      </c>
+      <c r="F99">
+        <v>3.05026039273768E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>403</v>
+      </c>
+      <c r="B100" t="str">
+        <f t="shared" si="1"/>
+        <v>best21_v12_val2_0.02720304332892028</v>
+      </c>
+      <c r="C100" t="s">
+        <v>0</v>
+      </c>
+      <c r="D100" t="s">
+        <v>21</v>
+      </c>
+      <c r="E100" t="s">
+        <v>4</v>
+      </c>
+      <c r="F100">
+        <v>2.72030433289202E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>404</v>
+      </c>
+      <c r="B101" t="str">
+        <f t="shared" si="1"/>
+        <v>best21_v12_val3_0.040624882658135145</v>
+      </c>
+      <c r="C101" t="s">
+        <v>0</v>
+      </c>
+      <c r="D101" t="s">
+        <v>21</v>
+      </c>
+      <c r="E101" t="s">
+        <v>5</v>
+      </c>
+      <c r="F101">
+        <v>4.0624882658135103E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>405</v>
+      </c>
+      <c r="B102" t="str">
+        <f t="shared" si="1"/>
+        <v>best21_v12_val4_0.03295413283788445</v>
+      </c>
+      <c r="C102" t="s">
+        <v>0</v>
+      </c>
+      <c r="D102" t="s">
+        <v>21</v>
+      </c>
+      <c r="E102" t="s">
+        <v>6</v>
+      </c>
+      <c r="F102">
+        <v>3.2954132837884398E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>406</v>
+      </c>
+      <c r="B103" t="str">
+        <f t="shared" si="1"/>
+        <v>best21_v12_val5_0.019879531236492175</v>
+      </c>
+      <c r="C103" t="s">
+        <v>0</v>
+      </c>
+      <c r="D103" t="s">
+        <v>21</v>
+      </c>
+      <c r="E103" t="s">
+        <v>7</v>
+      </c>
+      <c r="F103">
+        <v>1.9879531236492099E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>407</v>
+      </c>
+      <c r="B104" t="str">
+        <f t="shared" si="1"/>
+        <v>best21_v12_val6_0.12139162251479452</v>
+      </c>
+      <c r="C104" t="s">
+        <v>0</v>
+      </c>
+      <c r="D104" t="s">
+        <v>21</v>
+      </c>
+      <c r="E104" t="s">
+        <v>8</v>
+      </c>
+      <c r="F104">
+        <v>0.121391622514794</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>408</v>
+      </c>
+      <c r="B105" t="str">
+        <f t="shared" si="1"/>
+        <v>best21_v12_val7_0.03325307057645119</v>
+      </c>
+      <c r="C105" t="s">
+        <v>0</v>
+      </c>
+      <c r="D105" t="s">
+        <v>21</v>
+      </c>
+      <c r="E105" t="s">
+        <v>9</v>
+      </c>
+      <c r="F105">
+        <v>3.3253070576451098E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>409</v>
+      </c>
+      <c r="B106" t="str">
+        <f t="shared" si="1"/>
+        <v>best21_v13_val0_0.009964688698992112</v>
+      </c>
+      <c r="C106" t="s">
+        <v>0</v>
+      </c>
+      <c r="D106" t="s">
+        <v>22</v>
+      </c>
+      <c r="E106" t="s">
+        <v>2</v>
+      </c>
+      <c r="F106">
+        <v>9.96468869899211E-3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>410</v>
+      </c>
+      <c r="B107" t="str">
+        <f t="shared" si="1"/>
+        <v>best21_v13_val1_0.00899002487075186</v>
+      </c>
+      <c r="C107" t="s">
+        <v>0</v>
+      </c>
+      <c r="D107" t="s">
+        <v>22</v>
+      </c>
+      <c r="E107" t="s">
+        <v>3</v>
+      </c>
+      <c r="F107">
+        <v>8.9900248707518605E-3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>411</v>
+      </c>
+      <c r="B108" t="str">
+        <f t="shared" si="1"/>
+        <v>best21_v13_val2_0.009061903803898543</v>
+      </c>
+      <c r="C108" t="s">
+        <v>0</v>
+      </c>
+      <c r="D108" t="s">
+        <v>22</v>
+      </c>
+      <c r="E108" t="s">
+        <v>4</v>
+      </c>
+      <c r="F108">
+        <v>9.0619038038985394E-3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>412</v>
+      </c>
+      <c r="B109" t="str">
+        <f t="shared" si="1"/>
+        <v>best21_v13_val3_0.009482807294852263</v>
+      </c>
+      <c r="C109" t="s">
+        <v>0</v>
+      </c>
+      <c r="D109" t="s">
+        <v>22</v>
+      </c>
+      <c r="E109" t="s">
+        <v>5</v>
+      </c>
+      <c r="F109">
+        <v>9.48280729485226E-3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>413</v>
+      </c>
+      <c r="B110" t="str">
+        <f t="shared" si="1"/>
+        <v>best21_v13_val4_0.07023101781116695</v>
+      </c>
+      <c r="C110" t="s">
+        <v>0</v>
+      </c>
+      <c r="D110" t="s">
+        <v>22</v>
+      </c>
+      <c r="E110" t="s">
+        <v>6</v>
+      </c>
+      <c r="F110">
+        <v>7.0231017811166904E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>414</v>
+      </c>
+      <c r="B111" t="str">
+        <f t="shared" si="1"/>
+        <v>best21_v13_val5_0.009883142693347802</v>
+      </c>
+      <c r="C111" t="s">
+        <v>0</v>
+      </c>
+      <c r="D111" t="s">
+        <v>22</v>
+      </c>
+      <c r="E111" t="s">
+        <v>7</v>
+      </c>
+      <c r="F111">
+        <v>9.8831426933478003E-3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>415</v>
+      </c>
+      <c r="B112" t="str">
+        <f t="shared" si="1"/>
+        <v>best21_v13_val6_0.05851013946167492</v>
+      </c>
+      <c r="C112" t="s">
+        <v>0</v>
+      </c>
+      <c r="D112" t="s">
+        <v>22</v>
+      </c>
+      <c r="E112" t="s">
+        <v>8</v>
+      </c>
+      <c r="F112">
+        <v>5.8510139461674902E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>416</v>
+      </c>
+      <c r="B113" t="str">
+        <f t="shared" si="1"/>
+        <v>best21_v13_val7_0.009775939970495463</v>
+      </c>
+      <c r="C113" t="s">
+        <v>0</v>
+      </c>
+      <c r="D113" t="s">
+        <v>22</v>
+      </c>
+      <c r="E113" t="s">
+        <v>9</v>
+      </c>
+      <c r="F113">
+        <v>9.7759399704954592E-3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>417</v>
+      </c>
+      <c r="B114" t="str">
+        <f t="shared" si="1"/>
+        <v>best21_v14_val0_0.010242394098372918</v>
+      </c>
+      <c r="C114" t="s">
+        <v>0</v>
+      </c>
+      <c r="D114" t="s">
+        <v>23</v>
+      </c>
+      <c r="E114" t="s">
+        <v>2</v>
+      </c>
+      <c r="F114">
+        <v>1.02423940983729E-2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>418</v>
+      </c>
+      <c r="B115" t="str">
+        <f t="shared" si="1"/>
+        <v>best21_v14_val1_0.029087236687367242</v>
+      </c>
+      <c r="C115" t="s">
+        <v>0</v>
+      </c>
+      <c r="D115" t="s">
+        <v>23</v>
+      </c>
+      <c r="E115" t="s">
+        <v>3</v>
+      </c>
+      <c r="F115">
+        <v>2.90872366873672E-2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>419</v>
+      </c>
+      <c r="B116" t="str">
+        <f t="shared" si="1"/>
+        <v>best21_v14_val2_0.009914039596931807</v>
+      </c>
+      <c r="C116" t="s">
+        <v>0</v>
+      </c>
+      <c r="D116" t="s">
+        <v>23</v>
+      </c>
+      <c r="E116" t="s">
+        <v>4</v>
+      </c>
+      <c r="F116">
+        <v>9.9140395969318004E-3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>420</v>
+      </c>
+      <c r="B117" t="str">
+        <f t="shared" si="1"/>
+        <v>best21_v14_val3_0.057834396157438746</v>
+      </c>
+      <c r="C117" t="s">
+        <v>0</v>
+      </c>
+      <c r="D117" t="s">
+        <v>23</v>
+      </c>
+      <c r="E117" t="s">
+        <v>5</v>
+      </c>
+      <c r="F117">
+        <v>5.7834396157438697E-2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>421</v>
+      </c>
+      <c r="B118" t="str">
+        <f t="shared" si="1"/>
+        <v>best21_v14_val4_0.009727184594522684</v>
+      </c>
+      <c r="C118" t="s">
+        <v>0</v>
+      </c>
+      <c r="D118" t="s">
+        <v>23</v>
+      </c>
+      <c r="E118" t="s">
+        <v>6</v>
+      </c>
+      <c r="F118">
+        <v>9.7271845945226792E-3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>422</v>
+      </c>
+      <c r="B119" t="str">
+        <f t="shared" si="1"/>
+        <v>best21_v14_val5_0.009320302845780861</v>
+      </c>
+      <c r="C119" t="s">
+        <v>0</v>
+      </c>
+      <c r="D119" t="s">
+        <v>23</v>
+      </c>
+      <c r="E119" t="s">
+        <v>7</v>
+      </c>
+      <c r="F119">
+        <v>9.3203028457808593E-3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>423</v>
+      </c>
+      <c r="B120" t="str">
+        <f t="shared" si="1"/>
+        <v>best21_v14_val6_0.008914739841309463</v>
+      </c>
+      <c r="C120" t="s">
+        <v>0</v>
+      </c>
+      <c r="D120" t="s">
+        <v>23</v>
+      </c>
+      <c r="E120" t="s">
+        <v>8</v>
+      </c>
+      <c r="F120">
+        <v>8.9147398413094592E-3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>424</v>
+      </c>
+      <c r="B121" t="str">
+        <f t="shared" si="1"/>
+        <v>best21_v14_val7_0.009051294656079241</v>
+      </c>
+      <c r="C121" t="s">
+        <v>0</v>
+      </c>
+      <c r="D121" t="s">
+        <v>23</v>
+      </c>
+      <c r="E121" t="s">
+        <v>9</v>
+      </c>
+      <c r="F121">
+        <v>9.0512946560792392E-3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>425</v>
+      </c>
+      <c r="B122" t="str">
+        <f t="shared" si="1"/>
+        <v>best21_v15_val0_0.011095007056595689</v>
+      </c>
+      <c r="C122" t="s">
+        <v>0</v>
+      </c>
+      <c r="D122" t="s">
+        <v>24</v>
+      </c>
+      <c r="E122" t="s">
+        <v>2</v>
+      </c>
+      <c r="F122">
+        <v>1.10950070565956E-2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>426</v>
+      </c>
+      <c r="B123" t="str">
+        <f t="shared" si="1"/>
+        <v>best21_v15_val1_0.011649857458504291</v>
+      </c>
+      <c r="C123" t="s">
+        <v>0</v>
+      </c>
+      <c r="D123" t="s">
+        <v>24</v>
+      </c>
+      <c r="E123" t="s">
+        <v>3</v>
+      </c>
+      <c r="F123">
+        <v>1.1649857458504199E-2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>427</v>
+      </c>
+      <c r="B124" t="str">
+        <f t="shared" si="1"/>
+        <v>best21_v15_val2_0.012803691310677668</v>
+      </c>
+      <c r="C124" t="s">
+        <v>0</v>
+      </c>
+      <c r="D124" t="s">
+        <v>24</v>
+      </c>
+      <c r="E124" t="s">
+        <v>4</v>
+      </c>
+      <c r="F124">
+        <v>1.2803691310677601E-2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>428</v>
+      </c>
+      <c r="B125" t="str">
+        <f t="shared" si="1"/>
+        <v>best21_v15_val3_0.010660788109360315</v>
+      </c>
+      <c r="C125" t="s">
+        <v>0</v>
+      </c>
+      <c r="D125" t="s">
+        <v>24</v>
+      </c>
+      <c r="E125" t="s">
+        <v>5</v>
+      </c>
+      <c r="F125">
+        <v>1.0660788109360299E-2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>429</v>
+      </c>
+      <c r="B126" t="str">
+        <f t="shared" si="1"/>
+        <v>best21_v15_val4_0.011736067625022507</v>
+      </c>
+      <c r="C126" t="s">
+        <v>0</v>
+      </c>
+      <c r="D126" t="s">
+        <v>24</v>
+      </c>
+      <c r="E126" t="s">
+        <v>6</v>
+      </c>
+      <c r="F126">
+        <v>1.17360676250225E-2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>430</v>
+      </c>
+      <c r="B127" t="str">
+        <f t="shared" si="1"/>
+        <v>best21_v15_val5_0.011146045458653898</v>
+      </c>
+      <c r="C127" t="s">
+        <v>0</v>
+      </c>
+      <c r="D127" t="s">
+        <v>24</v>
+      </c>
+      <c r="E127" t="s">
+        <v>7</v>
+      </c>
+      <c r="F127">
+        <v>1.1146045458653799E-2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>431</v>
+      </c>
+      <c r="B128" t="str">
+        <f t="shared" si="1"/>
+        <v>best21_v15_val6_0.012314432564250239</v>
+      </c>
+      <c r="C128" t="s">
+        <v>0</v>
+      </c>
+      <c r="D128" t="s">
+        <v>24</v>
+      </c>
+      <c r="E128" t="s">
+        <v>8</v>
+      </c>
+      <c r="F128">
+        <v>1.2314432564250201E-2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>432</v>
+      </c>
+      <c r="B129" t="str">
+        <f t="shared" si="1"/>
+        <v>best21_v15_val7_0.010833341825966628</v>
+      </c>
+      <c r="C129" t="s">
+        <v>0</v>
+      </c>
+      <c r="D129" t="s">
+        <v>24</v>
+      </c>
+      <c r="E129" t="s">
+        <v>9</v>
+      </c>
+      <c r="F129">
+        <v>1.08333418259666E-2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>433</v>
+      </c>
+      <c r="B130" t="str">
+        <f t="shared" si="1"/>
+        <v>best21_v16_val0_0.007532556367897087</v>
+      </c>
+      <c r="C130" t="s">
+        <v>0</v>
+      </c>
+      <c r="D130" t="s">
+        <v>25</v>
+      </c>
+      <c r="E130" t="s">
+        <v>2</v>
+      </c>
+      <c r="F130">
+        <v>7.5325563678970801E-3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>434</v>
+      </c>
+      <c r="B131" t="str">
+        <f t="shared" ref="B131:B194" si="2">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A131,".txt:","_"),".csv val_performance = ","_"),"log_","")</f>
+        <v>best21_v16_val1_0.007251325691224211</v>
+      </c>
+      <c r="C131" t="s">
+        <v>0</v>
+      </c>
+      <c r="D131" t="s">
+        <v>25</v>
+      </c>
+      <c r="E131" t="s">
+        <v>3</v>
+      </c>
+      <c r="F131">
+        <v>7.2513256912242101E-3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>435</v>
+      </c>
+      <c r="B132" t="str">
+        <f t="shared" si="2"/>
+        <v>best21_v16_val2_0.009274479120860529</v>
+      </c>
+      <c r="C132" t="s">
+        <v>0</v>
+      </c>
+      <c r="D132" t="s">
+        <v>25</v>
+      </c>
+      <c r="E132" t="s">
+        <v>4</v>
+      </c>
+      <c r="F132">
+        <v>9.2744791208605199E-3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>436</v>
+      </c>
+      <c r="B133" t="str">
+        <f t="shared" si="2"/>
+        <v>best21_v16_val3_0.00847855596307313</v>
+      </c>
+      <c r="C133" t="s">
+        <v>0</v>
+      </c>
+      <c r="D133" t="s">
+        <v>25</v>
+      </c>
+      <c r="E133" t="s">
+        <v>5</v>
+      </c>
+      <c r="F133">
+        <v>8.4785559630731304E-3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>437</v>
+      </c>
+      <c r="B134" t="str">
+        <f t="shared" si="2"/>
+        <v>best21_v16_val4_0.009211971186847034</v>
+      </c>
+      <c r="C134" t="s">
+        <v>0</v>
+      </c>
+      <c r="D134" t="s">
+        <v>25</v>
+      </c>
+      <c r="E134" t="s">
+        <v>6</v>
+      </c>
+      <c r="F134">
+        <v>9.2119711868470303E-3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>438</v>
+      </c>
+      <c r="B135" t="str">
+        <f t="shared" si="2"/>
+        <v>best21_v16_val5_0.008569556979162157</v>
+      </c>
+      <c r="C135" t="s">
+        <v>0</v>
+      </c>
+      <c r="D135" t="s">
+        <v>25</v>
+      </c>
+      <c r="E135" t="s">
+        <v>7</v>
+      </c>
+      <c r="F135">
+        <v>8.5695569791621497E-3</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>439</v>
+      </c>
+      <c r="B136" t="str">
+        <f t="shared" si="2"/>
+        <v>best21_v16_val6_0.007710474288424404</v>
+      </c>
+      <c r="C136" t="s">
+        <v>0</v>
+      </c>
+      <c r="D136" t="s">
+        <v>25</v>
+      </c>
+      <c r="E136" t="s">
+        <v>8</v>
+      </c>
+      <c r="F136">
+        <v>7.7104742884244E-3</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>440</v>
+      </c>
+      <c r="B137" t="str">
+        <f t="shared" si="2"/>
+        <v>best21_v16_val7_0.007703552236957965</v>
+      </c>
+      <c r="C137" t="s">
+        <v>0</v>
+      </c>
+      <c r="D137" t="s">
+        <v>25</v>
+      </c>
+      <c r="E137" t="s">
+        <v>9</v>
+      </c>
+      <c r="F137">
+        <v>7.70355223695796E-3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>441</v>
+      </c>
+      <c r="B138" t="str">
+        <f t="shared" si="2"/>
+        <v>best21_v17_val0_0.011689347707278839</v>
+      </c>
+      <c r="C138" t="s">
+        <v>0</v>
+      </c>
+      <c r="D138" t="s">
+        <v>26</v>
+      </c>
+      <c r="E138" t="s">
+        <v>2</v>
+      </c>
+      <c r="F138">
+        <v>1.1689347707278801E-2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>442</v>
+      </c>
+      <c r="B139" t="str">
+        <f t="shared" si="2"/>
+        <v>best21_v17_val1_0.010647100551468851</v>
+      </c>
+      <c r="C139" t="s">
+        <v>0</v>
+      </c>
+      <c r="D139" t="s">
+        <v>26</v>
+      </c>
+      <c r="E139" t="s">
+        <v>3</v>
+      </c>
+      <c r="F139">
+        <v>1.0647100551468801E-2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>443</v>
+      </c>
+      <c r="B140" t="str">
+        <f t="shared" si="2"/>
+        <v>best21_v17_val2_0.010325668327241092</v>
+      </c>
+      <c r="C140" t="s">
+        <v>0</v>
+      </c>
+      <c r="D140" t="s">
+        <v>26</v>
+      </c>
+      <c r="E140" t="s">
+        <v>4</v>
+      </c>
+      <c r="F140">
+        <v>1.0325668327241E-2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>444</v>
+      </c>
+      <c r="B141" t="str">
+        <f t="shared" si="2"/>
+        <v>best21_v17_val3_0.01002166375634819</v>
+      </c>
+      <c r="C141" t="s">
+        <v>0</v>
+      </c>
+      <c r="D141" t="s">
+        <v>26</v>
+      </c>
+      <c r="E141" t="s">
+        <v>5</v>
+      </c>
+      <c r="F141">
+        <v>1.0021663756348101E-2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>445</v>
+      </c>
+      <c r="B142" t="str">
+        <f t="shared" si="2"/>
+        <v>best21_v17_val4_0.011676126755843785</v>
+      </c>
+      <c r="C142" t="s">
+        <v>0</v>
+      </c>
+      <c r="D142" t="s">
+        <v>26</v>
+      </c>
+      <c r="E142" t="s">
+        <v>6</v>
+      </c>
+      <c r="F142">
+        <v>1.16761267558437E-2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>446</v>
+      </c>
+      <c r="B143" t="str">
+        <f t="shared" si="2"/>
+        <v>best21_v17_val5_0.010529191658657924</v>
+      </c>
+      <c r="C143" t="s">
+        <v>0</v>
+      </c>
+      <c r="D143" t="s">
+        <v>26</v>
+      </c>
+      <c r="E143" t="s">
+        <v>7</v>
+      </c>
+      <c r="F143">
+        <v>1.0529191658657899E-2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>447</v>
+      </c>
+      <c r="B144" t="str">
+        <f t="shared" si="2"/>
+        <v>best21_v17_val6_0.008661756088808856</v>
+      </c>
+      <c r="C144" t="s">
+        <v>0</v>
+      </c>
+      <c r="D144" t="s">
+        <v>26</v>
+      </c>
+      <c r="E144" t="s">
+        <v>8</v>
+      </c>
+      <c r="F144">
+        <v>8.6617560888088505E-3</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>448</v>
+      </c>
+      <c r="B145" t="str">
+        <f t="shared" si="2"/>
+        <v>best21_v17_val7_0.008724678044981745</v>
+      </c>
+      <c r="C145" t="s">
+        <v>0</v>
+      </c>
+      <c r="D145" t="s">
+        <v>26</v>
+      </c>
+      <c r="E145" t="s">
+        <v>9</v>
+      </c>
+      <c r="F145">
+        <v>8.7246780449817402E-3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>449</v>
+      </c>
+      <c r="B146" t="str">
+        <f t="shared" si="2"/>
+        <v>best21_v18_val0_0.01010677336219836</v>
+      </c>
+      <c r="C146" t="s">
+        <v>0</v>
+      </c>
+      <c r="D146" t="s">
+        <v>27</v>
+      </c>
+      <c r="E146" t="s">
+        <v>2</v>
+      </c>
+      <c r="F146">
+        <v>1.01067733621983E-2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>450</v>
+      </c>
+      <c r="B147" t="str">
+        <f t="shared" si="2"/>
+        <v>best21_v18_val1_0.008259827857090639</v>
+      </c>
+      <c r="C147" t="s">
+        <v>0</v>
+      </c>
+      <c r="D147" t="s">
+        <v>27</v>
+      </c>
+      <c r="E147" t="s">
+        <v>3</v>
+      </c>
+      <c r="F147">
+        <v>8.2598278570906302E-3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>451</v>
+      </c>
+      <c r="B148" t="str">
+        <f t="shared" si="2"/>
+        <v>best21_v18_val2_0.008955673725223543</v>
+      </c>
+      <c r="C148" t="s">
+        <v>0</v>
+      </c>
+      <c r="D148" t="s">
+        <v>27</v>
+      </c>
+      <c r="E148" t="s">
+        <v>4</v>
+      </c>
+      <c r="F148">
+        <v>8.95567372522354E-3</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>452</v>
+      </c>
+      <c r="B149" t="str">
+        <f t="shared" si="2"/>
+        <v>best21_v18_val3_0.010123000382112488</v>
+      </c>
+      <c r="C149" t="s">
+        <v>0</v>
+      </c>
+      <c r="D149" t="s">
+        <v>27</v>
+      </c>
+      <c r="E149" t="s">
+        <v>5</v>
+      </c>
+      <c r="F149">
+        <v>1.0123000382112401E-2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>453</v>
+      </c>
+      <c r="B150" t="str">
+        <f t="shared" si="2"/>
+        <v>best21_v18_val4_0.00860109275870535</v>
+      </c>
+      <c r="C150" t="s">
+        <v>0</v>
+      </c>
+      <c r="D150" t="s">
+        <v>27</v>
+      </c>
+      <c r="E150" t="s">
+        <v>6</v>
+      </c>
+      <c r="F150">
+        <v>8.6010927587053497E-3</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>454</v>
+      </c>
+      <c r="B151" t="str">
+        <f t="shared" si="2"/>
+        <v>best21_v18_val5_0.00920542574989798</v>
+      </c>
+      <c r="C151" t="s">
+        <v>0</v>
+      </c>
+      <c r="D151" t="s">
+        <v>27</v>
+      </c>
+      <c r="E151" t="s">
+        <v>7</v>
+      </c>
+      <c r="F151">
+        <v>9.2054257498979802E-3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>455</v>
+      </c>
+      <c r="B152" t="str">
+        <f t="shared" si="2"/>
+        <v>best21_v18_val6_0.010266552871656993</v>
+      </c>
+      <c r="C152" t="s">
+        <v>0</v>
+      </c>
+      <c r="D152" t="s">
+        <v>27</v>
+      </c>
+      <c r="E152" t="s">
+        <v>8</v>
+      </c>
+      <c r="F152">
+        <v>1.0266552871656899E-2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>456</v>
+      </c>
+      <c r="B153" t="str">
+        <f t="shared" si="2"/>
+        <v>best21_v18_val7_0.00921384372436503</v>
+      </c>
+      <c r="C153" t="s">
+        <v>0</v>
+      </c>
+      <c r="D153" t="s">
+        <v>27</v>
+      </c>
+      <c r="E153" t="s">
+        <v>9</v>
+      </c>
+      <c r="F153">
+        <v>9.2138437243650308E-3</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>457</v>
+      </c>
+      <c r="B154" t="str">
+        <f t="shared" si="2"/>
+        <v>best21_v19_val0_0.00832147989159264</v>
+      </c>
+      <c r="C154" t="s">
+        <v>0</v>
+      </c>
+      <c r="D154" t="s">
+        <v>28</v>
+      </c>
+      <c r="E154" t="s">
+        <v>2</v>
+      </c>
+      <c r="F154">
+        <v>8.3214798915926397E-3</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>458</v>
+      </c>
+      <c r="B155" t="str">
+        <f t="shared" si="2"/>
+        <v>best21_v19_val1_0.007228770941823462</v>
+      </c>
+      <c r="C155" t="s">
+        <v>0</v>
+      </c>
+      <c r="D155" t="s">
+        <v>28</v>
+      </c>
+      <c r="E155" t="s">
+        <v>3</v>
+      </c>
+      <c r="F155">
+        <v>7.2287709418234602E-3</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>459</v>
+      </c>
+      <c r="B156" t="str">
+        <f t="shared" si="2"/>
+        <v>best21_v19_val2_0.006595701483903725</v>
+      </c>
+      <c r="C156" t="s">
+        <v>0</v>
+      </c>
+      <c r="D156" t="s">
+        <v>28</v>
+      </c>
+      <c r="E156" t="s">
+        <v>4</v>
+      </c>
+      <c r="F156">
+        <v>6.5957014839037199E-3</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>460</v>
+      </c>
+      <c r="B157" t="str">
+        <f t="shared" si="2"/>
+        <v>best21_v19_val3_0.008373110114790664</v>
+      </c>
+      <c r="C157" t="s">
+        <v>0</v>
+      </c>
+      <c r="D157" t="s">
+        <v>28</v>
+      </c>
+      <c r="E157" t="s">
+        <v>5</v>
+      </c>
+      <c r="F157">
+        <v>8.3731101147906592E-3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>461</v>
+      </c>
+      <c r="B158" t="str">
+        <f t="shared" si="2"/>
+        <v>best21_v19_val4_0.007339873025542152</v>
+      </c>
+      <c r="C158" t="s">
+        <v>0</v>
+      </c>
+      <c r="D158" t="s">
+        <v>28</v>
+      </c>
+      <c r="E158" t="s">
+        <v>6</v>
+      </c>
+      <c r="F158">
+        <v>7.3398730255421502E-3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>462</v>
+      </c>
+      <c r="B159" t="str">
+        <f t="shared" si="2"/>
+        <v>best21_v19_val5_0.009017765560100675</v>
+      </c>
+      <c r="C159" t="s">
+        <v>0</v>
+      </c>
+      <c r="D159" t="s">
+        <v>28</v>
+      </c>
+      <c r="E159" t="s">
+        <v>7</v>
+      </c>
+      <c r="F159">
+        <v>9.0177655601006695E-3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>463</v>
+      </c>
+      <c r="B160" t="str">
+        <f t="shared" si="2"/>
+        <v>best21_v19_val6_0.007368359605521645</v>
+      </c>
+      <c r="C160" t="s">
+        <v>0</v>
+      </c>
+      <c r="D160" t="s">
+        <v>28</v>
+      </c>
+      <c r="E160" t="s">
+        <v>8</v>
+      </c>
+      <c r="F160">
+        <v>7.3683596055216403E-3</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>464</v>
+      </c>
+      <c r="B161" t="str">
+        <f t="shared" si="2"/>
+        <v>best21_v19_val7_0.007553781237488174</v>
+      </c>
+      <c r="C161" t="s">
+        <v>0</v>
+      </c>
+      <c r="D161" t="s">
+        <v>28</v>
+      </c>
+      <c r="E161" t="s">
+        <v>9</v>
+      </c>
+      <c r="F161">
+        <v>7.5537812374881696E-3</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>465</v>
+      </c>
+      <c r="B162" t="str">
+        <f t="shared" si="2"/>
+        <v>best21_v20_val0_0.0073254233320826255</v>
+      </c>
+      <c r="C162" t="s">
+        <v>0</v>
+      </c>
+      <c r="D162" t="s">
+        <v>29</v>
+      </c>
+      <c r="E162" t="s">
+        <v>2</v>
+      </c>
+      <c r="F162">
+        <v>7.3254233320826203E-3</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>466</v>
+      </c>
+      <c r="B163" t="str">
+        <f t="shared" si="2"/>
+        <v>best21_v20_val1_0.007366280424455239</v>
+      </c>
+      <c r="C163" t="s">
+        <v>0</v>
+      </c>
+      <c r="D163" t="s">
+        <v>29</v>
+      </c>
+      <c r="E163" t="s">
+        <v>3</v>
+      </c>
+      <c r="F163">
+        <v>7.3662804244552299E-3</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>467</v>
+      </c>
+      <c r="B164" t="str">
+        <f t="shared" si="2"/>
+        <v>best21_v20_val2_0.0072284782972892704</v>
+      </c>
+      <c r="C164" t="s">
+        <v>0</v>
+      </c>
+      <c r="D164" t="s">
+        <v>29</v>
+      </c>
+      <c r="E164" t="s">
+        <v>4</v>
+      </c>
+      <c r="F164">
+        <v>7.2284782972892696E-3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>468</v>
+      </c>
+      <c r="B165" t="str">
+        <f t="shared" si="2"/>
+        <v>best21_v20_val3_0.009566506790245519</v>
+      </c>
+      <c r="C165" t="s">
+        <v>0</v>
+      </c>
+      <c r="D165" t="s">
+        <v>29</v>
+      </c>
+      <c r="E165" t="s">
+        <v>5</v>
+      </c>
+      <c r="F165">
+        <v>9.5665067902455103E-3</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>469</v>
+      </c>
+      <c r="B166" t="str">
+        <f t="shared" si="2"/>
+        <v>best21_v20_val4_0.007220494043665177</v>
+      </c>
+      <c r="C166" t="s">
+        <v>0</v>
+      </c>
+      <c r="D166" t="s">
+        <v>29</v>
+      </c>
+      <c r="E166" t="s">
+        <v>6</v>
+      </c>
+      <c r="F166">
+        <v>7.2204940436651696E-3</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>470</v>
+      </c>
+      <c r="B167" t="str">
+        <f t="shared" si="2"/>
+        <v>best21_v20_val5_0.009260833475017986</v>
+      </c>
+      <c r="C167" t="s">
+        <v>0</v>
+      </c>
+      <c r="D167" t="s">
+        <v>29</v>
+      </c>
+      <c r="E167" t="s">
+        <v>7</v>
+      </c>
+      <c r="F167">
+        <v>9.2608334750179794E-3</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>471</v>
+      </c>
+      <c r="B168" t="str">
+        <f t="shared" si="2"/>
+        <v>best21_v20_val6_0.007577581537810733</v>
+      </c>
+      <c r="C168" t="s">
+        <v>0</v>
+      </c>
+      <c r="D168" t="s">
+        <v>29</v>
+      </c>
+      <c r="E168" t="s">
+        <v>8</v>
+      </c>
+      <c r="F168">
+        <v>7.5775815378107299E-3</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>472</v>
+      </c>
+      <c r="B169" t="str">
+        <f t="shared" si="2"/>
+        <v>best21_v20_val7_0.007641690173616314</v>
+      </c>
+      <c r="C169" t="s">
+        <v>0</v>
+      </c>
+      <c r="D169" t="s">
+        <v>29</v>
+      </c>
+      <c r="E169" t="s">
+        <v>9</v>
+      </c>
+      <c r="F169">
+        <v>7.6416901736163102E-3</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>473</v>
+      </c>
+      <c r="B170" t="str">
+        <f t="shared" si="2"/>
+        <v>best21_v21_val0_0.02070364843262148</v>
+      </c>
+      <c r="C170" t="s">
+        <v>0</v>
+      </c>
+      <c r="D170" t="s">
+        <v>30</v>
+      </c>
+      <c r="E170" t="s">
+        <v>2</v>
+      </c>
+      <c r="F170">
+        <v>2.0703648432621399E-2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>474</v>
+      </c>
+      <c r="B171" t="str">
+        <f t="shared" si="2"/>
+        <v>best21_v21_val1_0.0210600872777465</v>
+      </c>
+      <c r="C171" t="s">
+        <v>0</v>
+      </c>
+      <c r="D171" t="s">
+        <v>30</v>
+      </c>
+      <c r="E171" t="s">
+        <v>3</v>
+      </c>
+      <c r="F171">
+        <v>2.1060087277746501E-2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>475</v>
+      </c>
+      <c r="B172" t="str">
+        <f t="shared" si="2"/>
+        <v>best21_v21_val2_0.020140738549259733</v>
+      </c>
+      <c r="C172" t="s">
+        <v>0</v>
+      </c>
+      <c r="D172" t="s">
+        <v>30</v>
+      </c>
+      <c r="E172" t="s">
+        <v>4</v>
+      </c>
+      <c r="F172">
+        <v>2.0140738549259699E-2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>476</v>
+      </c>
+      <c r="B173" t="str">
+        <f t="shared" si="2"/>
+        <v>best21_v21_val3_0.01709275408692216</v>
+      </c>
+      <c r="C173" t="s">
+        <v>0</v>
+      </c>
+      <c r="D173" t="s">
+        <v>30</v>
+      </c>
+      <c r="E173" t="s">
+        <v>5</v>
+      </c>
+      <c r="F173">
+        <v>1.70927540869221E-2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>477</v>
+      </c>
+      <c r="B174" t="str">
+        <f t="shared" si="2"/>
+        <v>best21_v21_val4_0.017183661618467346</v>
+      </c>
+      <c r="C174" t="s">
+        <v>0</v>
+      </c>
+      <c r="D174" t="s">
+        <v>30</v>
+      </c>
+      <c r="E174" t="s">
+        <v>6</v>
+      </c>
+      <c r="F174">
+        <v>1.7183661618467301E-2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>478</v>
+      </c>
+      <c r="B175" t="str">
+        <f t="shared" si="2"/>
+        <v>best21_v21_val5_0.019394803868896044</v>
+      </c>
+      <c r="C175" t="s">
+        <v>0</v>
+      </c>
+      <c r="D175" t="s">
+        <v>30</v>
+      </c>
+      <c r="E175" t="s">
+        <v>7</v>
+      </c>
+      <c r="F175">
+        <v>1.9394803868895999E-2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>479</v>
+      </c>
+      <c r="B176" t="str">
+        <f t="shared" si="2"/>
+        <v>best21_v21_val6_0.01914609618169201</v>
+      </c>
+      <c r="C176" t="s">
+        <v>0</v>
+      </c>
+      <c r="D176" t="s">
+        <v>30</v>
+      </c>
+      <c r="E176" t="s">
+        <v>8</v>
+      </c>
+      <c r="F176">
+        <v>1.9146096181692E-2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>480</v>
+      </c>
+      <c r="B177" t="str">
+        <f t="shared" si="2"/>
+        <v>best21_v21_val7_0.016234278198350306</v>
+      </c>
+      <c r="C177" t="s">
+        <v>0</v>
+      </c>
+      <c r="D177" t="s">
+        <v>30</v>
+      </c>
+      <c r="E177" t="s">
+        <v>9</v>
+      </c>
+      <c r="F177">
+        <v>1.6234278198350299E-2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>481</v>
+      </c>
+      <c r="B178" t="str">
+        <f t="shared" si="2"/>
+        <v>best21_v22_val0_0.007689005140321752</v>
+      </c>
+      <c r="C178" t="s">
+        <v>0</v>
+      </c>
+      <c r="D178" t="s">
+        <v>39</v>
+      </c>
+      <c r="E178" t="s">
+        <v>2</v>
+      </c>
+      <c r="F178">
+        <v>7.6890051403217504E-3</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>482</v>
+      </c>
+      <c r="B179" t="str">
+        <f t="shared" si="2"/>
+        <v>best21_v22_val1_0.009000550012773287</v>
+      </c>
+      <c r="C179" t="s">
+        <v>0</v>
+      </c>
+      <c r="D179" t="s">
+        <v>39</v>
+      </c>
+      <c r="E179" t="s">
+        <v>3</v>
+      </c>
+      <c r="F179">
+        <v>9.0005500127732802E-3</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>483</v>
+      </c>
+      <c r="B180" t="str">
+        <f t="shared" si="2"/>
+        <v>best21_v22_val2_0.007825950983273601</v>
+      </c>
+      <c r="C180" t="s">
+        <v>0</v>
+      </c>
+      <c r="D180" t="s">
+        <v>39</v>
+      </c>
+      <c r="E180" t="s">
+        <v>4</v>
+      </c>
+      <c r="F180">
+        <v>7.8259509832735996E-3</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>484</v>
+      </c>
+      <c r="B181" t="str">
+        <f t="shared" si="2"/>
+        <v>best21_v22_val3_0.007812437077311672</v>
+      </c>
+      <c r="C181" t="s">
+        <v>0</v>
+      </c>
+      <c r="D181" t="s">
+        <v>39</v>
+      </c>
+      <c r="E181" t="s">
+        <v>5</v>
+      </c>
+      <c r="F181">
+        <v>7.8124370773116703E-3</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>485</v>
+      </c>
+      <c r="B182" t="str">
+        <f t="shared" si="2"/>
+        <v>best21_v22_val4_0.008879031687340428</v>
+      </c>
+      <c r="C182" t="s">
+        <v>0</v>
+      </c>
+      <c r="D182" t="s">
+        <v>39</v>
+      </c>
+      <c r="E182" t="s">
+        <v>6</v>
+      </c>
+      <c r="F182">
+        <v>8.8790316873404197E-3</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>486</v>
+      </c>
+      <c r="B183" t="str">
+        <f t="shared" si="2"/>
+        <v>best21_v22_val5_0.008941586787046393</v>
+      </c>
+      <c r="C183" t="s">
+        <v>0</v>
+      </c>
+      <c r="D183" t="s">
+        <v>39</v>
+      </c>
+      <c r="E183" t="s">
+        <v>7</v>
+      </c>
+      <c r="F183">
+        <v>8.9415867870463895E-3</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>487</v>
+      </c>
+      <c r="B184" t="str">
+        <f t="shared" si="2"/>
+        <v>best21_v22_val6_0.007732984660932034</v>
+      </c>
+      <c r="C184" t="s">
+        <v>0</v>
+      </c>
+      <c r="D184" t="s">
+        <v>39</v>
+      </c>
+      <c r="E184" t="s">
+        <v>8</v>
+      </c>
+      <c r="F184">
+        <v>7.7329846609320296E-3</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>488</v>
+      </c>
+      <c r="B185" t="str">
+        <f t="shared" si="2"/>
+        <v>best21_v22_val7_0.008543110211509695</v>
+      </c>
+      <c r="C185" t="s">
+        <v>0</v>
+      </c>
+      <c r="D185" t="s">
+        <v>39</v>
+      </c>
+      <c r="E185" t="s">
+        <v>9</v>
+      </c>
+      <c r="F185">
+        <v>8.5431102115096896E-3</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>489</v>
+      </c>
+      <c r="B186" t="str">
+        <f t="shared" si="2"/>
+        <v>best21_v23_val0_0.007327410698902702</v>
+      </c>
+      <c r="C186" t="s">
+        <v>0</v>
+      </c>
+      <c r="D186" t="s">
+        <v>40</v>
+      </c>
+      <c r="E186" t="s">
+        <v>2</v>
+      </c>
+      <c r="F186">
+        <v>7.3274106989026999E-3</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>490</v>
+      </c>
+      <c r="B187" t="str">
+        <f t="shared" si="2"/>
+        <v>best21_v23_val1_0.008895576061260095</v>
+      </c>
+      <c r="C187" t="s">
+        <v>0</v>
+      </c>
+      <c r="D187" t="s">
+        <v>40</v>
+      </c>
+      <c r="E187" t="s">
+        <v>3</v>
+      </c>
+      <c r="F187">
+        <v>8.8955760612600895E-3</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>491</v>
+      </c>
+      <c r="B188" t="str">
+        <f t="shared" si="2"/>
+        <v>best21_v23_val2_0.006999199912301175</v>
+      </c>
+      <c r="C188" t="s">
+        <v>0</v>
+      </c>
+      <c r="D188" t="s">
+        <v>40</v>
+      </c>
+      <c r="E188" t="s">
+        <v>4</v>
+      </c>
+      <c r="F188">
+        <v>6.9991999123011697E-3</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>492</v>
+      </c>
+      <c r="B189" t="str">
+        <f t="shared" si="2"/>
+        <v>best21_v23_val3_0.00962854397444061</v>
+      </c>
+      <c r="C189" t="s">
+        <v>0</v>
+      </c>
+      <c r="D189" t="s">
+        <v>40</v>
+      </c>
+      <c r="E189" t="s">
+        <v>5</v>
+      </c>
+      <c r="F189">
+        <v>9.6285439744406096E-3</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>493</v>
+      </c>
+      <c r="B190" t="str">
+        <f t="shared" si="2"/>
+        <v>best21_v23_val4_0.007624730346490994</v>
+      </c>
+      <c r="C190" t="s">
+        <v>0</v>
+      </c>
+      <c r="D190" t="s">
+        <v>40</v>
+      </c>
+      <c r="E190" t="s">
+        <v>6</v>
+      </c>
+      <c r="F190">
+        <v>7.6247303464909901E-3</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>494</v>
+      </c>
+      <c r="B191" t="str">
+        <f t="shared" si="2"/>
+        <v>best21_v23_val5_0.009028328376471629</v>
+      </c>
+      <c r="C191" t="s">
+        <v>0</v>
+      </c>
+      <c r="D191" t="s">
+        <v>40</v>
+      </c>
+      <c r="E191" t="s">
+        <v>7</v>
+      </c>
+      <c r="F191">
+        <v>9.0283283764716199E-3</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>495</v>
+      </c>
+      <c r="B192" t="str">
+        <f t="shared" si="2"/>
+        <v>best21_v23_val6_0.007793118205190226</v>
+      </c>
+      <c r="C192" t="s">
+        <v>0</v>
+      </c>
+      <c r="D192" t="s">
+        <v>40</v>
+      </c>
+      <c r="E192" t="s">
+        <v>8</v>
+      </c>
+      <c r="F192">
+        <v>7.7931182051902198E-3</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>496</v>
+      </c>
+      <c r="B193" t="str">
+        <f t="shared" si="2"/>
+        <v>best21_v23_val7_0.009492371353012853</v>
+      </c>
+      <c r="C193" t="s">
+        <v>0</v>
+      </c>
+      <c r="D193" t="s">
+        <v>40</v>
+      </c>
+      <c r="E193" t="s">
+        <v>9</v>
+      </c>
+      <c r="F193">
+        <v>9.4923713530128493E-3</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>497</v>
+      </c>
+      <c r="B194" t="str">
+        <f t="shared" si="2"/>
+        <v>best21_v24_val0_0.00721279283521568</v>
+      </c>
+      <c r="C194" t="s">
+        <v>0</v>
+      </c>
+      <c r="D194" t="s">
+        <v>41</v>
+      </c>
+      <c r="E194" t="s">
+        <v>2</v>
+      </c>
+      <c r="F194">
+        <v>7.2127928352156796E-3</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>498</v>
+      </c>
+      <c r="B195" t="str">
+        <f t="shared" ref="B195:B257" si="3">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A195,".txt:","_"),".csv val_performance = ","_"),"log_","")</f>
+        <v>best21_v24_val1_0.00956651852601941</v>
+      </c>
+      <c r="C195" t="s">
+        <v>0</v>
+      </c>
+      <c r="D195" t="s">
+        <v>41</v>
+      </c>
+      <c r="E195" t="s">
+        <v>3</v>
+      </c>
+      <c r="F195">
+        <v>9.5665185260194099E-3</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>499</v>
+      </c>
+      <c r="B196" t="str">
+        <f t="shared" si="3"/>
+        <v>best21_v24_val2_0.007957206820838957</v>
+      </c>
+      <c r="C196" t="s">
+        <v>0</v>
+      </c>
+      <c r="D196" t="s">
+        <v>41</v>
+      </c>
+      <c r="E196" t="s">
+        <v>4</v>
+      </c>
+      <c r="F196">
+        <v>7.9572068208389503E-3</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>500</v>
+      </c>
+      <c r="B197" t="str">
+        <f t="shared" si="3"/>
+        <v>best21_v24_val3_0.00788540799586289</v>
+      </c>
+      <c r="C197" t="s">
+        <v>0</v>
+      </c>
+      <c r="D197" t="s">
+        <v>41</v>
+      </c>
+      <c r="E197" t="s">
+        <v>5</v>
+      </c>
+      <c r="F197">
+        <v>7.8854079958628892E-3</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>501</v>
+      </c>
+      <c r="B198" t="str">
+        <f t="shared" si="3"/>
+        <v>best21_v24_val4_0.008828751644596048</v>
+      </c>
+      <c r="C198" t="s">
+        <v>0</v>
+      </c>
+      <c r="D198" t="s">
+        <v>41</v>
+      </c>
+      <c r="E198" t="s">
+        <v>6</v>
+      </c>
+      <c r="F198">
+        <v>8.8287516445960407E-3</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>502</v>
+      </c>
+      <c r="B199" t="str">
+        <f t="shared" si="3"/>
+        <v>best21_v24_val5_0.007545064907151663</v>
+      </c>
+      <c r="C199" t="s">
+        <v>0</v>
+      </c>
+      <c r="D199" t="s">
+        <v>41</v>
+      </c>
+      <c r="E199" t="s">
+        <v>7</v>
+      </c>
+      <c r="F199">
+        <v>7.54506490715166E-3</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>503</v>
+      </c>
+      <c r="B200" t="str">
+        <f t="shared" si="3"/>
+        <v>best21_v24_val6_0.0073482373180002725</v>
+      </c>
+      <c r="C200" t="s">
+        <v>0</v>
+      </c>
+      <c r="D200" t="s">
+        <v>41</v>
+      </c>
+      <c r="E200" t="s">
+        <v>8</v>
+      </c>
+      <c r="F200">
+        <v>7.3482373180002699E-3</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>504</v>
+      </c>
+      <c r="B201" t="str">
+        <f t="shared" si="3"/>
+        <v>best21_v24_val7_0.007530546136018913</v>
+      </c>
+      <c r="C201" t="s">
+        <v>0</v>
+      </c>
+      <c r="D201" t="s">
+        <v>41</v>
+      </c>
+      <c r="E201" t="s">
+        <v>9</v>
+      </c>
+      <c r="F201">
+        <v>7.5305461360189096E-3</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>505</v>
+      </c>
+      <c r="B202" t="str">
+        <f t="shared" si="3"/>
+        <v>best21_v25_val0_0.007835031171930113</v>
+      </c>
+      <c r="C202" t="s">
+        <v>0</v>
+      </c>
+      <c r="D202" t="s">
+        <v>42</v>
+      </c>
+      <c r="E202" t="s">
+        <v>2</v>
+      </c>
+      <c r="F202">
+        <v>7.83503117193011E-3</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>506</v>
+      </c>
+      <c r="B203" t="str">
+        <f t="shared" si="3"/>
+        <v>best21_v25_val1_0.007454921839931311</v>
+      </c>
+      <c r="C203" t="s">
+        <v>0</v>
+      </c>
+      <c r="D203" t="s">
+        <v>42</v>
+      </c>
+      <c r="E203" t="s">
+        <v>3</v>
+      </c>
+      <c r="F203">
+        <v>7.45492183993131E-3</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>507</v>
+      </c>
+      <c r="B204" t="str">
+        <f t="shared" si="3"/>
+        <v>best21_v25_val2_0.007982482371149863</v>
+      </c>
+      <c r="C204" t="s">
+        <v>0</v>
+      </c>
+      <c r="D204" t="s">
+        <v>42</v>
+      </c>
+      <c r="E204" t="s">
+        <v>4</v>
+      </c>
+      <c r="F204">
+        <v>7.9824823711498599E-3</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>508</v>
+      </c>
+      <c r="B205" t="str">
+        <f t="shared" si="3"/>
+        <v>best21_v25_val3_0.008950965842510362</v>
+      </c>
+      <c r="C205" t="s">
+        <v>0</v>
+      </c>
+      <c r="D205" t="s">
+        <v>42</v>
+      </c>
+      <c r="E205" t="s">
+        <v>5</v>
+      </c>
+      <c r="F205">
+        <v>8.9509658425103601E-3</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>509</v>
+      </c>
+      <c r="B206" t="str">
+        <f t="shared" si="3"/>
+        <v>best21_v25_val4_0.007437703527351104</v>
+      </c>
+      <c r="C206" t="s">
+        <v>0</v>
+      </c>
+      <c r="D206" t="s">
+        <v>42</v>
+      </c>
+      <c r="E206" t="s">
+        <v>6</v>
+      </c>
+      <c r="F206">
+        <v>7.4377035273510998E-3</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>510</v>
+      </c>
+      <c r="B207" t="str">
+        <f t="shared" si="3"/>
+        <v>best21_v25_val5_0.009126889216820545</v>
+      </c>
+      <c r="C207" t="s">
+        <v>0</v>
+      </c>
+      <c r="D207" t="s">
+        <v>42</v>
+      </c>
+      <c r="E207" t="s">
+        <v>7</v>
+      </c>
+      <c r="F207">
+        <v>9.1268892168205398E-3</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>511</v>
+      </c>
+      <c r="B208" t="str">
+        <f t="shared" si="3"/>
+        <v>best21_v25_val6_0.00791917629893828</v>
+      </c>
+      <c r="C208" t="s">
+        <v>0</v>
+      </c>
+      <c r="D208" t="s">
+        <v>42</v>
+      </c>
+      <c r="E208" t="s">
+        <v>8</v>
+      </c>
+      <c r="F208">
+        <v>7.9191762989382804E-3</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>512</v>
+      </c>
+      <c r="B209" t="str">
+        <f t="shared" si="3"/>
+        <v>best21_v25_val7_0.009525085202715826</v>
+      </c>
+      <c r="C209" t="s">
+        <v>0</v>
+      </c>
+      <c r="D209" t="s">
+        <v>42</v>
+      </c>
+      <c r="E209" t="s">
+        <v>9</v>
+      </c>
+      <c r="F209">
+        <v>9.5250852027158207E-3</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>513</v>
+      </c>
+      <c r="B210" t="str">
+        <f t="shared" si="3"/>
+        <v>best21_v26_val0_0.010393904176181154</v>
+      </c>
+      <c r="C210" t="s">
+        <v>0</v>
+      </c>
+      <c r="D210" t="s">
+        <v>43</v>
+      </c>
+      <c r="E210" t="s">
+        <v>2</v>
+      </c>
+      <c r="F210">
+        <v>1.03939041761811E-2</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>514</v>
+      </c>
+      <c r="B211" t="str">
+        <f t="shared" si="3"/>
+        <v>best21_v26_val1_0.009560190091066428</v>
+      </c>
+      <c r="C211" t="s">
+        <v>0</v>
+      </c>
+      <c r="D211" t="s">
+        <v>43</v>
+      </c>
+      <c r="E211" t="s">
+        <v>3</v>
+      </c>
+      <c r="F211">
+        <v>9.5601900910664197E-3</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>515</v>
+      </c>
+      <c r="B212" t="str">
+        <f t="shared" si="3"/>
+        <v>best21_v26_val2_0.0086685806198867</v>
+      </c>
+      <c r="C212" t="s">
+        <v>0</v>
+      </c>
+      <c r="D212" t="s">
+        <v>43</v>
+      </c>
+      <c r="E212" t="s">
+        <v>4</v>
+      </c>
+      <c r="F212">
+        <v>8.6685806198866996E-3</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>516</v>
+      </c>
+      <c r="B213" t="str">
+        <f t="shared" si="3"/>
+        <v>best21_v26_val3_0.0097272437344993</v>
+      </c>
+      <c r="C213" t="s">
+        <v>0</v>
+      </c>
+      <c r="D213" t="s">
+        <v>43</v>
+      </c>
+      <c r="E213" t="s">
+        <v>5</v>
+      </c>
+      <c r="F213">
+        <v>9.7272437344992999E-3</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>517</v>
+      </c>
+      <c r="B214" t="str">
+        <f t="shared" si="3"/>
+        <v>best21_v26_val4_0.010761954538176105</v>
+      </c>
+      <c r="C214" t="s">
+        <v>0</v>
+      </c>
+      <c r="D214" t="s">
+        <v>43</v>
+      </c>
+      <c r="E214" t="s">
+        <v>6</v>
+      </c>
+      <c r="F214">
+        <v>1.07619545381761E-2</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>518</v>
+      </c>
+      <c r="B215" t="str">
+        <f t="shared" si="3"/>
+        <v>best21_v26_val5_0.009554121400792957</v>
+      </c>
+      <c r="C215" t="s">
+        <v>0</v>
+      </c>
+      <c r="D215" t="s">
+        <v>43</v>
+      </c>
+      <c r="E215" t="s">
+        <v>7</v>
+      </c>
+      <c r="F215">
+        <v>9.5541214007929497E-3</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>519</v>
+      </c>
+      <c r="B216" t="str">
+        <f t="shared" si="3"/>
+        <v>best21_v26_val6_0.010605728266946859</v>
+      </c>
+      <c r="C216" t="s">
+        <v>0</v>
+      </c>
+      <c r="D216" t="s">
+        <v>43</v>
+      </c>
+      <c r="E216" t="s">
+        <v>8</v>
+      </c>
+      <c r="F216">
+        <v>1.06057282669468E-2</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>520</v>
+      </c>
+      <c r="B217" t="str">
+        <f t="shared" si="3"/>
+        <v>best21_v26_val7_0.010021903147369048</v>
+      </c>
+      <c r="C217" t="s">
+        <v>0</v>
+      </c>
+      <c r="D217" t="s">
+        <v>43</v>
+      </c>
+      <c r="E217" t="s">
+        <v>9</v>
+      </c>
+      <c r="F217">
+        <v>1.0021903147368999E-2</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>521</v>
+      </c>
+      <c r="B218" t="str">
+        <f t="shared" si="3"/>
+        <v>best21_v27_val0_0.009814482243009801</v>
+      </c>
+      <c r="C218" t="s">
+        <v>0</v>
+      </c>
+      <c r="D218" t="s">
+        <v>44</v>
+      </c>
+      <c r="E218" t="s">
+        <v>2</v>
+      </c>
+      <c r="F218">
+        <v>9.8144822430097992E-3</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>522</v>
+      </c>
+      <c r="B219" t="str">
+        <f t="shared" si="3"/>
+        <v>best21_v27_val1_0.008266882706230284</v>
+      </c>
+      <c r="C219" t="s">
+        <v>0</v>
+      </c>
+      <c r="D219" t="s">
+        <v>44</v>
+      </c>
+      <c r="E219" t="s">
+        <v>3</v>
+      </c>
+      <c r="F219">
+        <v>8.2668827062302806E-3</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>523</v>
+      </c>
+      <c r="B220" t="str">
+        <f t="shared" si="3"/>
+        <v>best21_v27_val2_0.00910325853900007</v>
+      </c>
+      <c r="C220" t="s">
+        <v>0</v>
+      </c>
+      <c r="D220" t="s">
+        <v>44</v>
+      </c>
+      <c r="E220" t="s">
+        <v>4</v>
+      </c>
+      <c r="F220">
+        <v>9.1032585390000698E-3</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>524</v>
+      </c>
+      <c r="B221" t="str">
+        <f t="shared" si="3"/>
+        <v>best21_v27_val3_0.010425138932969672</v>
+      </c>
+      <c r="C221" t="s">
+        <v>0</v>
+      </c>
+      <c r="D221" t="s">
+        <v>44</v>
+      </c>
+      <c r="E221" t="s">
+        <v>5</v>
+      </c>
+      <c r="F221">
+        <v>1.04251389329696E-2</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>525</v>
+      </c>
+      <c r="B222" t="str">
+        <f t="shared" si="3"/>
+        <v>best21_v27_val4_0.008569233633994741</v>
+      </c>
+      <c r="C222" t="s">
+        <v>0</v>
+      </c>
+      <c r="D222" t="s">
+        <v>44</v>
+      </c>
+      <c r="E222" t="s">
+        <v>6</v>
+      </c>
+      <c r="F222">
+        <v>8.5692336339947394E-3</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>526</v>
+      </c>
+      <c r="B223" t="str">
+        <f t="shared" si="3"/>
+        <v>best21_v27_val5_0.008577732265187212</v>
+      </c>
+      <c r="C223" t="s">
+        <v>0</v>
+      </c>
+      <c r="D223" t="s">
+        <v>44</v>
+      </c>
+      <c r="E223" t="s">
+        <v>7</v>
+      </c>
+      <c r="F223">
+        <v>8.5777322651872101E-3</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>527</v>
+      </c>
+      <c r="B224" t="str">
+        <f t="shared" si="3"/>
+        <v>best21_v27_val6_0.008789280089869215</v>
+      </c>
+      <c r="C224" t="s">
+        <v>0</v>
+      </c>
+      <c r="D224" t="s">
+        <v>44</v>
+      </c>
+      <c r="E224" t="s">
+        <v>8</v>
+      </c>
+      <c r="F224">
+        <v>8.7892800898692093E-3</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>528</v>
+      </c>
+      <c r="B225" t="str">
+        <f t="shared" si="3"/>
+        <v>best21_v27_val7_0.008951640820351409</v>
+      </c>
+      <c r="C225" t="s">
+        <v>0</v>
+      </c>
+      <c r="D225" t="s">
+        <v>44</v>
+      </c>
+      <c r="E225" t="s">
+        <v>9</v>
+      </c>
+      <c r="F225">
+        <v>8.9516408203513999E-3</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>529</v>
+      </c>
+      <c r="B226" t="str">
+        <f t="shared" si="3"/>
+        <v>best21_v28_val0_0.12203972422279678</v>
+      </c>
+      <c r="C226" t="s">
+        <v>0</v>
+      </c>
+      <c r="D226" t="s">
+        <v>47</v>
+      </c>
+      <c r="E226" t="s">
+        <v>2</v>
+      </c>
+      <c r="F226">
+        <v>0.12203972422279601</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>530</v>
+      </c>
+      <c r="B227" t="str">
+        <f t="shared" si="3"/>
+        <v>best21_v28_val1_0.12137614017530624</v>
+      </c>
+      <c r="C227" t="s">
+        <v>0</v>
+      </c>
+      <c r="D227" t="s">
+        <v>47</v>
+      </c>
+      <c r="E227" t="s">
+        <v>3</v>
+      </c>
+      <c r="F227">
+        <v>0.121376140175306</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>531</v>
+      </c>
+      <c r="B228" t="str">
+        <f t="shared" si="3"/>
+        <v>best21_v28_val2_0.1211234652557329</v>
+      </c>
+      <c r="C228" t="s">
+        <v>0</v>
+      </c>
+      <c r="D228" t="s">
+        <v>47</v>
+      </c>
+      <c r="E228" t="s">
+        <v>4</v>
+      </c>
+      <c r="F228">
+        <v>0.121123465255732</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>532</v>
+      </c>
+      <c r="B229" t="str">
+        <f t="shared" si="3"/>
+        <v>best21_v28_val3_0.12159551334425259</v>
+      </c>
+      <c r="C229" t="s">
+        <v>0</v>
+      </c>
+      <c r="D229" t="s">
+        <v>47</v>
+      </c>
+      <c r="E229" t="s">
+        <v>5</v>
+      </c>
+      <c r="F229">
+        <v>0.121595513344252</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>533</v>
+      </c>
+      <c r="B230" t="str">
+        <f t="shared" si="3"/>
+        <v>best21_v28_val4_0.12175122962052357</v>
+      </c>
+      <c r="C230" t="s">
+        <v>0</v>
+      </c>
+      <c r="D230" t="s">
+        <v>47</v>
+      </c>
+      <c r="E230" t="s">
+        <v>6</v>
+      </c>
+      <c r="F230">
+        <v>0.121751229620523</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>534</v>
+      </c>
+      <c r="B231" t="str">
+        <f t="shared" si="3"/>
+        <v>best21_v28_val5_0.12130185181979945</v>
+      </c>
+      <c r="C231" t="s">
+        <v>0</v>
+      </c>
+      <c r="D231" t="s">
+        <v>47</v>
+      </c>
+      <c r="E231" t="s">
+        <v>7</v>
+      </c>
+      <c r="F231">
+        <v>0.12130185181979899</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>535</v>
+      </c>
+      <c r="B232" t="str">
+        <f t="shared" si="3"/>
+        <v>best21_v28_val6_0.030679574281390093</v>
+      </c>
+      <c r="C232" t="s">
+        <v>0</v>
+      </c>
+      <c r="D232" t="s">
+        <v>47</v>
+      </c>
+      <c r="E232" t="s">
+        <v>8</v>
+      </c>
+      <c r="F232">
+        <v>3.0679574281389999E-2</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>536</v>
+      </c>
+      <c r="B233" t="str">
+        <f t="shared" si="3"/>
+        <v>best21_v28_val7_0.12166115148099162</v>
+      </c>
+      <c r="C233" t="s">
+        <v>0</v>
+      </c>
+      <c r="D233" t="s">
+        <v>47</v>
+      </c>
+      <c r="E233" t="s">
+        <v>9</v>
+      </c>
+      <c r="F233">
+        <v>0.12166115148099101</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>537</v>
+      </c>
+      <c r="B234" t="str">
+        <f t="shared" si="3"/>
+        <v>best21_v29_val0_0.008834193706310925</v>
+      </c>
+      <c r="C234" t="s">
+        <v>0</v>
+      </c>
+      <c r="D234" t="s">
+        <v>48</v>
+      </c>
+      <c r="E234" t="s">
+        <v>2</v>
+      </c>
+      <c r="F234">
+        <v>8.8341937063109201E-3</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>538</v>
+      </c>
+      <c r="B235" t="str">
+        <f t="shared" si="3"/>
+        <v>best21_v29_val1_0.1213681890146086</v>
+      </c>
+      <c r="C235" t="s">
+        <v>0</v>
+      </c>
+      <c r="D235" t="s">
+        <v>48</v>
+      </c>
+      <c r="E235" t="s">
+        <v>3</v>
+      </c>
+      <c r="F235">
+        <v>0.121368189014608</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>539</v>
+      </c>
+      <c r="B236" t="str">
+        <f t="shared" si="3"/>
+        <v>best21_v29_val2_0.040287538797782844</v>
+      </c>
+      <c r="C236" t="s">
+        <v>0</v>
+      </c>
+      <c r="D236" t="s">
+        <v>48</v>
+      </c>
+      <c r="E236" t="s">
+        <v>4</v>
+      </c>
+      <c r="F236">
+        <v>4.0287538797782803E-2</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>540</v>
+      </c>
+      <c r="B237" t="str">
+        <f t="shared" si="3"/>
+        <v>best21_v29_val3_0.02454065653503342</v>
+      </c>
+      <c r="C237" t="s">
+        <v>0</v>
+      </c>
+      <c r="D237" t="s">
+        <v>48</v>
+      </c>
+      <c r="E237" t="s">
+        <v>5</v>
+      </c>
+      <c r="F237">
+        <v>2.45406565350334E-2</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>541</v>
+      </c>
+      <c r="B238" t="str">
+        <f t="shared" si="3"/>
+        <v>best21_v29_val4_0.007859260164666428</v>
+      </c>
+      <c r="C238" t="s">
+        <v>0</v>
+      </c>
+      <c r="D238" t="s">
+        <v>48</v>
+      </c>
+      <c r="E238" t="s">
+        <v>6</v>
+      </c>
+      <c r="F238">
+        <v>7.8592601646664192E-3</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>542</v>
+      </c>
+      <c r="B239" t="str">
+        <f t="shared" si="3"/>
+        <v>best21_v29_val5_0.121311952867741</v>
+      </c>
+      <c r="C239" t="s">
+        <v>0</v>
+      </c>
+      <c r="D239" t="s">
+        <v>48</v>
+      </c>
+      <c r="E239" t="s">
+        <v>7</v>
+      </c>
+      <c r="F239">
+        <v>0.121311952867741</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>543</v>
+      </c>
+      <c r="B240" t="str">
+        <f t="shared" si="3"/>
+        <v>best21_v29_val6_0.12143421532340416</v>
+      </c>
+      <c r="C240" t="s">
+        <v>0</v>
+      </c>
+      <c r="D240" t="s">
+        <v>48</v>
+      </c>
+      <c r="E240" t="s">
+        <v>8</v>
+      </c>
+      <c r="F240">
+        <v>0.121434215323404</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>544</v>
+      </c>
+      <c r="B241" t="str">
+        <f t="shared" si="3"/>
+        <v>best21_v29_val7_0.12165504537278751</v>
+      </c>
+      <c r="C241" t="s">
+        <v>0</v>
+      </c>
+      <c r="D241" t="s">
+        <v>48</v>
+      </c>
+      <c r="E241" t="s">
+        <v>9</v>
+      </c>
+      <c r="F241">
+        <v>0.121655045372787</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>545</v>
+      </c>
+      <c r="B242" t="str">
+        <f t="shared" si="3"/>
+        <v>best21_v30_val0_0.008552560539593005</v>
+      </c>
+      <c r="C242" t="s">
+        <v>0</v>
+      </c>
+      <c r="D242" t="s">
+        <v>49</v>
+      </c>
+      <c r="E242" t="s">
+        <v>2</v>
+      </c>
+      <c r="F242">
+        <v>8.5525605395929995E-3</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>546</v>
+      </c>
+      <c r="B243" t="str">
+        <f t="shared" si="3"/>
+        <v>best21_v30_val1_0.010465103528142613</v>
+      </c>
+      <c r="C243" t="s">
+        <v>0</v>
+      </c>
+      <c r="D243" t="s">
+        <v>49</v>
+      </c>
+      <c r="E243" t="s">
+        <v>3</v>
+      </c>
+      <c r="F243">
+        <v>1.0465103528142601E-2</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>547</v>
+      </c>
+      <c r="B244" t="str">
+        <f t="shared" si="3"/>
+        <v>best21_v30_val2_0.008970033008404774</v>
+      </c>
+      <c r="C244" t="s">
+        <v>0</v>
+      </c>
+      <c r="D244" t="s">
+        <v>49</v>
+      </c>
+      <c r="E244" t="s">
+        <v>4</v>
+      </c>
+      <c r="F244">
+        <v>8.9700330084047705E-3</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>548</v>
+      </c>
+      <c r="B245" t="str">
+        <f t="shared" si="3"/>
+        <v>best21_v30_val3_0.009784948733517462</v>
+      </c>
+      <c r="C245" t="s">
+        <v>0</v>
+      </c>
+      <c r="D245" t="s">
+        <v>49</v>
+      </c>
+      <c r="E245" t="s">
+        <v>5</v>
+      </c>
+      <c r="F245">
+        <v>9.7849487335174602E-3</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>549</v>
+      </c>
+      <c r="B246" t="str">
+        <f t="shared" si="3"/>
+        <v>best21_v30_val4_0.007868257641990407</v>
+      </c>
+      <c r="C246" t="s">
+        <v>0</v>
+      </c>
+      <c r="D246" t="s">
+        <v>49</v>
+      </c>
+      <c r="E246" t="s">
+        <v>6</v>
+      </c>
+      <c r="F246">
+        <v>7.8682576419904001E-3</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>550</v>
+      </c>
+      <c r="B247" t="str">
+        <f t="shared" si="3"/>
+        <v>best21_v30_val5_0.009270483415580571</v>
+      </c>
+      <c r="C247" t="s">
+        <v>0</v>
+      </c>
+      <c r="D247" t="s">
+        <v>49</v>
+      </c>
+      <c r="E247" t="s">
+        <v>7</v>
+      </c>
+      <c r="F247">
+        <v>9.2704834155805695E-3</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>551</v>
+      </c>
+      <c r="B248" t="str">
+        <f t="shared" si="3"/>
+        <v>best21_v30_val6_0.008420179462925576</v>
+      </c>
+      <c r="C248" t="s">
+        <v>0</v>
+      </c>
+      <c r="D248" t="s">
+        <v>49</v>
+      </c>
+      <c r="E248" t="s">
+        <v>8</v>
+      </c>
+      <c r="F248">
+        <v>8.4201794629255693E-3</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>552</v>
+      </c>
+      <c r="B249" t="str">
+        <f t="shared" si="3"/>
+        <v>best21_v30_val7_0.009049613628009608</v>
+      </c>
+      <c r="C249" t="s">
+        <v>0</v>
+      </c>
+      <c r="D249" t="s">
+        <v>49</v>
+      </c>
+      <c r="E249" t="s">
+        <v>9</v>
+      </c>
+      <c r="F249">
+        <v>9.0496136280096007E-3</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>553</v>
+      </c>
+      <c r="B250" t="str">
+        <f t="shared" si="3"/>
+        <v>lstm+_v00_val0_0.012077301454536728</v>
+      </c>
+      <c r="C250" t="s">
+        <v>304</v>
+      </c>
+      <c r="D250" t="s">
+        <v>1</v>
+      </c>
+      <c r="E250" t="s">
+        <v>2</v>
+      </c>
+      <c r="F250">
+        <v>1.20773014545367E-2</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>554</v>
+      </c>
+      <c r="B251" t="str">
+        <f t="shared" si="3"/>
+        <v>lstm+_v00_val1_0.011247609400471297</v>
+      </c>
+      <c r="C251" t="s">
+        <v>304</v>
+      </c>
+      <c r="D251" t="s">
+        <v>1</v>
+      </c>
+      <c r="E251" t="s">
+        <v>3</v>
+      </c>
+      <c r="F251">
+        <v>1.12476094004712E-2</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>555</v>
+      </c>
+      <c r="B252" t="str">
+        <f t="shared" si="3"/>
+        <v>lstm+_v00_val2_0.010817204291642629</v>
+      </c>
+      <c r="C252" t="s">
+        <v>304</v>
+      </c>
+      <c r="D252" t="s">
+        <v>1</v>
+      </c>
+      <c r="E252" t="s">
+        <v>4</v>
+      </c>
+      <c r="F252">
+        <v>1.0817204291642599E-2</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>556</v>
+      </c>
+      <c r="B253" t="str">
+        <f t="shared" si="3"/>
+        <v>lstm+_v00_val3_0.012030721598226497</v>
+      </c>
+      <c r="C253" t="s">
+        <v>304</v>
+      </c>
+      <c r="D253" t="s">
+        <v>1</v>
+      </c>
+      <c r="E253" t="s">
+        <v>5</v>
+      </c>
+      <c r="F253">
+        <v>1.20307215982264E-2</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>557</v>
+      </c>
+      <c r="B254" t="str">
+        <f t="shared" si="3"/>
+        <v>lstm+_v00_val4_0.010501869164782088</v>
+      </c>
+      <c r="C254" t="s">
+        <v>304</v>
+      </c>
+      <c r="D254" t="s">
+        <v>1</v>
+      </c>
+      <c r="E254" t="s">
+        <v>6</v>
+      </c>
+      <c r="F254">
+        <v>1.0501869164781999E-2</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>558</v>
+      </c>
+      <c r="B255" t="str">
+        <f t="shared" si="3"/>
+        <v>lstm+_v00_val5_0.010672862550560443</v>
+      </c>
+      <c r="C255" t="s">
+        <v>304</v>
+      </c>
+      <c r="D255" t="s">
+        <v>1</v>
+      </c>
+      <c r="E255" t="s">
+        <v>7</v>
+      </c>
+      <c r="F255">
+        <v>1.0672862550560399E-2</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>559</v>
+      </c>
+      <c r="B256" t="str">
+        <f t="shared" si="3"/>
+        <v>lstm+_v00_val6_0.011850849296624303</v>
+      </c>
+      <c r="C256" t="s">
+        <v>304</v>
+      </c>
+      <c r="D256" t="s">
+        <v>1</v>
+      </c>
+      <c r="E256" t="s">
+        <v>8</v>
+      </c>
+      <c r="F256">
+        <v>1.18508492966243E-2</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>560</v>
+      </c>
+      <c r="B257" t="str">
+        <f t="shared" si="3"/>
+        <v>lstm+_v00_val7_0.011805429373094343</v>
+      </c>
+      <c r="C257" t="s">
+        <v>304</v>
+      </c>
+      <c r="D257" t="s">
+        <v>1</v>
+      </c>
+      <c r="E257" t="s">
+        <v>9</v>
+      </c>
+      <c r="F257">
+        <v>1.1805429373094299E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
 </file>